--- a/node/cc.xlsx
+++ b/node/cc.xlsx
@@ -423,205 +423,169 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>113233744</v>
+        <v>64175109</v>
       </c>
       <c r="B2" t="str">
-        <v>fang4002498016952</v>
+        <v>vnewhous62567936</v>
       </c>
       <c r="C2" t="str">
-        <v>198****8898</v>
+        <v>136****8466</v>
       </c>
       <c r="D2" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F2" t="str">
-        <v>2019/7/31 17:04:53</v>
+        <v>2019/7/31 22:53:05</v>
       </c>
       <c r="G2" t="str">
-        <v>精准潜客</v>
+        <v>收藏</v>
       </c>
       <c r="H2" t="str">
-        <v>https://rec1.1ketong.com:8092/pull0/97/20190731/20190731170600689327122202.mp3</v>
-      </c>
-      <c r="I2" t="str">
-        <v>2019/7/31 17:06:00</v>
-      </c>
-      <c r="J2" t="str">
-        <v>24</v>
+        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4991980&amp;NewCode=3110122580", "链接")</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>100820323</v>
+        <v>112938638</v>
       </c>
       <c r="B3" t="str">
-        <v>card90194049</v>
+        <v>fang9165157852</v>
       </c>
       <c r="C3" t="str">
-        <v>173****9201</v>
+        <v>178****1335</v>
       </c>
       <c r="D3" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F3" t="str">
-        <v>2019/7/31 17:04:52</v>
+        <v>2019/7/31 18:05:19</v>
       </c>
       <c r="G3" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H3" t="str">
-        <v>https://rec1.1ketong.com:8092/pull0/97/20190731/20190731170648846669222215.mp3</v>
-      </c>
-      <c r="I3" t="str">
-        <v>2019/7/31 17:06:48</v>
-      </c>
-      <c r="J3" t="str">
-        <v>53</v>
+        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4991516&amp;NewCode=3110122580", "链接")</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>51235195</v>
+        <v>111135196</v>
       </c>
       <c r="B4" t="str">
-        <v>newhouse10582121</v>
+        <v>fang8385151858</v>
       </c>
       <c r="C4" t="str">
-        <v>152****5608</v>
+        <v>135****3432</v>
       </c>
       <c r="D4" t="str">
-        <v>杨帆</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F4" t="str">
-        <v>2019/7/31 17:04:51</v>
+        <v>2019/7/31 18:05:18</v>
       </c>
       <c r="G4" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H4" t="str">
-        <v>https://rec1.1ketong.com:8092/pull0/97/20190731/20190731170753689071422199.mp3</v>
-      </c>
-      <c r="I4" t="str">
-        <v>2019/7/31 17:07:53</v>
-      </c>
-      <c r="J4" t="str">
-        <v>99</v>
+        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4991515&amp;NewCode=3110122580", "链接")</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>43451028</v>
+        <v>112761347</v>
       </c>
       <c r="B5" t="str">
-        <v>贾从飞123</v>
+        <v>card212545527</v>
       </c>
       <c r="C5" t="str">
-        <v>186****1115</v>
+        <v>152****1866</v>
       </c>
       <c r="D5" t="str">
-        <v>杨帆</v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F5" t="str">
-        <v>2019/7/31 17:04:50</v>
+        <v>2019/7/31 18:05:18</v>
       </c>
       <c r="G5" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H5" t="str">
-        <v>https://rec1.1ketong.com:8092/pull0/97/20190731/20190731171142890691222240.mp3</v>
-      </c>
-      <c r="I5" t="str">
-        <v>2019/7/31 17:11:42</v>
-      </c>
-      <c r="J5" t="str">
-        <v>37</v>
+        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4991514&amp;NewCode=3110122580", "链接")</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>106718717</v>
+        <v>113233744</v>
       </c>
       <c r="B6" t="str">
-        <v>周辉辉123</v>
+        <v>fang4002498016952</v>
       </c>
       <c r="C6" t="str">
-        <v>131****0517</v>
+        <v>198****8898</v>
       </c>
       <c r="D6" t="str">
-        <v>杨帆</v>
+        <v>田杰</v>
       </c>
       <c r="E6" t="str">
         <v>已接通</v>
       </c>
       <c r="F6" t="str">
-        <v>2019/7/31 16:05:18</v>
+        <v>2019/7/31 17:04:53</v>
       </c>
       <c r="G6" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H6" t="str">
-        <v>https://rec1.1ketong.com:8092/pull0/97/20190731/20190731162622961792822236.mp3</v>
-      </c>
-      <c r="I6" t="str">
-        <v>2019/7/31 16:26:22</v>
-      </c>
-      <c r="J6" t="str">
-        <v>33</v>
+        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4990938&amp;NewCode=3110122580", "链接")</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>63536257</v>
+        <v>100820323</v>
       </c>
       <c r="B7" t="str">
-        <v>soufunpa624209916</v>
+        <v>card90194049</v>
       </c>
       <c r="C7" t="str">
-        <v>136****3366</v>
+        <v>173****9201</v>
       </c>
       <c r="D7" t="str">
-        <v>杨帆</v>
+        <v>田杰</v>
       </c>
       <c r="E7" t="str">
         <v>已接通</v>
       </c>
       <c r="F7" t="str">
-        <v>2019/7/31 16:05:17</v>
+        <v>2019/7/31 17:04:52</v>
       </c>
       <c r="G7" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H7" t="str">
-        <v>https://rec1.1ketong.com:8092/pull0/97/20190731/20190731170621858894922208.mp3</v>
-      </c>
-      <c r="I7" t="str">
-        <v>2019/7/31 17:06:21</v>
-      </c>
-      <c r="J7" t="str">
-        <v>5</v>
+        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4990937&amp;NewCode=3110122580", "链接")</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>65769601</v>
+        <v>51235195</v>
       </c>
       <c r="B8" t="str">
-        <v>inewhous62725096</v>
+        <v>newhouse10582121</v>
       </c>
       <c r="C8" t="str">
-        <v>136****3930</v>
+        <v>152****5608</v>
       </c>
       <c r="D8" t="str">
         <v>杨帆</v>
@@ -630,30 +594,24 @@
         <v>已接通</v>
       </c>
       <c r="F8" t="str">
-        <v>2019/7/31 16:05:16</v>
+        <v>2019/7/31 17:04:51</v>
       </c>
       <c r="G8" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H8" t="str">
-        <v>https://rec1.1ketong.com:8092/pull0/97/20190731/20190731171311890716322240.mp3</v>
-      </c>
-      <c r="I8" t="str">
-        <v>2019/7/31 17:13:11</v>
-      </c>
-      <c r="J8" t="str">
-        <v>31</v>
+        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4990936&amp;NewCode=3110122580", "链接")</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>113202842</v>
+        <v>43451028</v>
       </c>
       <c r="B9" t="str">
-        <v>card6103304475</v>
+        <v>贾从飞123</v>
       </c>
       <c r="C9" t="str">
-        <v>133****7174</v>
+        <v>186****1115</v>
       </c>
       <c r="D9" t="str">
         <v>杨帆</v>
@@ -662,53 +620,50 @@
         <v>已接通</v>
       </c>
       <c r="F9" t="str">
-        <v>2019/7/31 16:05:12</v>
+        <v>2019/7/31 17:04:50</v>
       </c>
       <c r="G9" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H9" t="str">
-        <v>https://rec1.1ketong.com:8092/pull0/97/20190731/20190731171437962706922235.mp3</v>
-      </c>
-      <c r="I9" t="str">
-        <v>2019/7/31 17:14:37</v>
-      </c>
-      <c r="J9" t="str">
-        <v>50</v>
+        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4990935&amp;NewCode=3110122580", "链接")</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>111295188</v>
+        <v>106718717</v>
       </c>
       <c r="B10" t="str">
-        <v>fang4523189629</v>
+        <v>周辉辉123</v>
       </c>
       <c r="C10" t="str">
-        <v>159****4179</v>
+        <v>131****0517</v>
       </c>
       <c r="D10" t="str">
-        <v>刘茜婷</v>
+        <v>杨帆</v>
       </c>
       <c r="E10" t="str">
-        <v>未呼</v>
+        <v>已接通</v>
       </c>
       <c r="F10" t="str">
-        <v>2019/7/31 12:57:38</v>
+        <v>2019/7/31 16:05:18</v>
       </c>
       <c r="G10" t="str">
-        <v>房聊</v>
+        <v>精准潜客</v>
+      </c>
+      <c r="H10" t="str">
+        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4990574&amp;NewCode=3110122580", "链接")</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>96711003</v>
+        <v>63536257</v>
       </c>
       <c r="B11" t="str">
-        <v>fang1824521915</v>
+        <v>soufunpa624209916</v>
       </c>
       <c r="C11" t="str">
-        <v>133****9315</v>
+        <v>136****3366</v>
       </c>
       <c r="D11" t="str">
         <v>杨帆</v>
@@ -717,19 +672,13 @@
         <v>已接通</v>
       </c>
       <c r="F11" t="str">
-        <v>2019/7/31 11:10:12</v>
+        <v>2019/7/31 16:05:17</v>
       </c>
       <c r="G11" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H11" t="str">
-        <v>https://rec1.1ketong.com:8092/pull0/97/20190731/20190731123717885240822240.mp3</v>
-      </c>
-      <c r="I11" t="str">
-        <v>2019/7/31 12:37:17</v>
-      </c>
-      <c r="J11" t="str">
-        <v>29</v>
+        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4990573&amp;NewCode=3110122580", "链接")</v>
       </c>
     </row>
   </sheetData>

--- a/node/cc.xlsx
+++ b/node/cc.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -403,267 +403,366 @@
         <v>客户来源</v>
       </c>
       <c r="H1" t="str">
+        <v>操作</v>
+      </c>
+      <c r="I1" t="str">
         <v>音频地址</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>通话时间</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>通话时长</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>跟进记录</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>意向</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>通话记录</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>64175109</v>
+        <v>112363553</v>
       </c>
       <c r="B2" t="str">
-        <v>vnewhous62567936</v>
+        <v>passport7657619011</v>
       </c>
       <c r="C2" t="str">
-        <v>136****8466</v>
+        <v>134****2632</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>刘茜婷</v>
       </c>
       <c r="E2" t="str">
-        <v>未呼</v>
+        <v>已接通</v>
       </c>
       <c r="F2" t="str">
-        <v>2019/7/31 22:53:05</v>
+        <v>2019/8/1 16:30:46</v>
       </c>
       <c r="G2" t="str">
-        <v>收藏</v>
+        <v>房聊</v>
       </c>
       <c r="H2" t="str">
-        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4991980&amp;NewCode=3110122580", "链接")</v>
+        <v>查看</v>
+      </c>
+      <c r="I2" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J2" t="str">
+        <v>2019/8/1 16:32:06</v>
+      </c>
+      <c r="K2" t="str">
+        <v>32</v>
+      </c>
+      <c r="L2" t="str">
+        <v>【通话】 拨打电话【跟进】 一直不说话</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>112938638</v>
+        <v>91987221</v>
       </c>
       <c r="B3" t="str">
-        <v>fang9165157852</v>
+        <v>fang8397888519</v>
       </c>
       <c r="C3" t="str">
-        <v>178****1335</v>
+        <v>139****8330</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>杨帆</v>
       </c>
       <c r="E3" t="str">
-        <v>未呼</v>
+        <v>已接通</v>
       </c>
       <c r="F3" t="str">
-        <v>2019/7/31 18:05:19</v>
+        <v>2019/8/1 16:16:12</v>
       </c>
       <c r="G3" t="str">
-        <v>精准潜客</v>
+        <v>房聊</v>
       </c>
       <c r="H3" t="str">
-        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4991516&amp;NewCode=3110122580", "链接")</v>
+        <v>查看</v>
+      </c>
+      <c r="I3" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2019/8/1 16:29:26</v>
+      </c>
+      <c r="K3" t="str">
+        <v>37</v>
+      </c>
+      <c r="L3" t="str">
+        <v>【通话】 拨打电话【跟进】 不买房</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>111135196</v>
+        <v>105943102</v>
       </c>
       <c r="B4" t="str">
-        <v>fang8385151858</v>
+        <v>4008407478101</v>
       </c>
       <c r="C4" t="str">
-        <v>135****3432</v>
+        <v>199****3767</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>田杰</v>
       </c>
       <c r="E4" t="str">
-        <v>未呼</v>
+        <v>已接通</v>
       </c>
       <c r="F4" t="str">
-        <v>2019/7/31 18:05:18</v>
+        <v>2019/8/1 16:03:16</v>
       </c>
       <c r="G4" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H4" t="str">
-        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4991515&amp;NewCode=3110122580", "链接")</v>
+        <v>查看</v>
+      </c>
+      <c r="I4" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2019/8/1 16:21:15</v>
+      </c>
+      <c r="K4" t="str">
+        <v>14</v>
+      </c>
+      <c r="L4" t="str">
+        <v>【通话】 拨打电话</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>112761347</v>
+        <v>103550633</v>
       </c>
       <c r="B5" t="str">
-        <v>card212545527</v>
+        <v>fang8675573412</v>
       </c>
       <c r="C5" t="str">
-        <v>152****1866</v>
+        <v>187****6245</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>杨帆</v>
       </c>
       <c r="E5" t="str">
-        <v>未呼</v>
+        <v>已接通</v>
       </c>
       <c r="F5" t="str">
-        <v>2019/7/31 18:05:18</v>
+        <v>2019/8/1 16:03:15</v>
       </c>
       <c r="G5" t="str">
-        <v>精准潜客</v>
+        <v>房聊</v>
       </c>
       <c r="H5" t="str">
-        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4991514&amp;NewCode=3110122580", "链接")</v>
+        <v>查看</v>
+      </c>
+      <c r="I5" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J5" t="str">
+        <v>2019/8/1 16:15:35</v>
+      </c>
+      <c r="K5" t="str">
+        <v>392</v>
+      </c>
+      <c r="L5" t="str">
+        <v>【通话】 拨打电话【跟进】 已加微信</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>113233744</v>
+        <v>108373727</v>
       </c>
       <c r="B6" t="str">
-        <v>fang4002498016952</v>
+        <v>fang4001187518137</v>
       </c>
       <c r="C6" t="str">
-        <v>198****8898</v>
+        <v>136****4931</v>
       </c>
       <c r="D6" t="str">
-        <v>田杰</v>
+        <v>刘茜婷</v>
       </c>
       <c r="E6" t="str">
         <v>已接通</v>
       </c>
       <c r="F6" t="str">
-        <v>2019/7/31 17:04:53</v>
+        <v>2019/8/1 15:02:17</v>
       </c>
       <c r="G6" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H6" t="str">
-        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4990938&amp;NewCode=3110122580", "链接")</v>
+        <v>查看</v>
+      </c>
+      <c r="I6" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J6" t="str">
+        <v>2019/8/1 15:40:37</v>
+      </c>
+      <c r="K6" t="str">
+        <v>14</v>
+      </c>
+      <c r="L6" t="str">
+        <v>【通话】 拨打电话【跟进】 现在在忙</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>100820323</v>
+        <v>113231744</v>
       </c>
       <c r="B7" t="str">
-        <v>card90194049</v>
+        <v>fang4004853638962</v>
       </c>
       <c r="C7" t="str">
-        <v>173****9201</v>
+        <v>177****8991</v>
       </c>
       <c r="D7" t="str">
-        <v>田杰</v>
+        <v>刘茜婷</v>
       </c>
       <c r="E7" t="str">
         <v>已接通</v>
       </c>
       <c r="F7" t="str">
-        <v>2019/7/31 17:04:52</v>
+        <v>2019/8/1 14:07:55</v>
       </c>
       <c r="G7" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H7" t="str">
-        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4990937&amp;NewCode=3110122580", "链接")</v>
+        <v>查看</v>
+      </c>
+      <c r="I7" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J7" t="str">
+        <v>2019/8/1 15:35:28</v>
+      </c>
+      <c r="K7" t="str">
+        <v>20</v>
+      </c>
+      <c r="L7" t="str">
+        <v>【通话】 拨打电话【跟进】 不考虑买房子</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>51235195</v>
+        <v>112697822</v>
       </c>
       <c r="B8" t="str">
-        <v>newhouse10582121</v>
+        <v>fang1698711650</v>
       </c>
       <c r="C8" t="str">
-        <v>152****5608</v>
+        <v>177****0538</v>
       </c>
       <c r="D8" t="str">
-        <v>杨帆</v>
+        <v>刘茜婷</v>
       </c>
       <c r="E8" t="str">
         <v>已接通</v>
       </c>
       <c r="F8" t="str">
-        <v>2019/7/31 17:04:51</v>
+        <v>2019/8/1 14:07:54</v>
       </c>
       <c r="G8" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H8" t="str">
-        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4990936&amp;NewCode=3110122580", "链接")</v>
+        <v>查看</v>
+      </c>
+      <c r="I8" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J8" t="str">
+        <v>2019/8/1 15:54:21</v>
+      </c>
+      <c r="K8" t="str">
+        <v>105</v>
+      </c>
+      <c r="L8" t="str">
+        <v>【通话】 拨打电话【跟进】 开盘再联系</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>43451028</v>
+        <v>112863218</v>
       </c>
       <c r="B9" t="str">
-        <v>贾从飞123</v>
+        <v>fang8658098061</v>
       </c>
       <c r="C9" t="str">
-        <v>186****1115</v>
+        <v>186****5774</v>
       </c>
       <c r="D9" t="str">
-        <v>杨帆</v>
+        <v>刘茜婷</v>
       </c>
       <c r="E9" t="str">
         <v>已接通</v>
       </c>
       <c r="F9" t="str">
-        <v>2019/7/31 17:04:50</v>
+        <v>2019/8/1 13:56:27</v>
       </c>
       <c r="G9" t="str">
-        <v>精准潜客</v>
+        <v>收藏</v>
       </c>
       <c r="H9" t="str">
-        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4990935&amp;NewCode=3110122580", "链接")</v>
+        <v>查看</v>
+      </c>
+      <c r="I9" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J9" t="str">
+        <v>2019/8/1 15:52:10</v>
+      </c>
+      <c r="K9" t="str">
+        <v>17</v>
+      </c>
+      <c r="L9" t="str">
+        <v>【通话】 拨打电话【跟进】 不考虑</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>106718717</v>
+        <v>102429849</v>
       </c>
       <c r="B10" t="str">
-        <v>周辉辉123</v>
+        <v>kysjk1310809375</v>
       </c>
       <c r="C10" t="str">
-        <v>131****0517</v>
+        <v>177****3027</v>
       </c>
       <c r="D10" t="str">
         <v>杨帆</v>
       </c>
       <c r="E10" t="str">
-        <v>已接通</v>
+        <v>已呼未接通</v>
       </c>
       <c r="F10" t="str">
-        <v>2019/7/31 16:05:18</v>
+        <v>2019/8/1 13:07:45</v>
       </c>
       <c r="G10" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H10" t="str">
-        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4990574&amp;NewCode=3110122580", "链接")</v>
+        <v>查看</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>63536257</v>
+        <v>113076459</v>
       </c>
       <c r="B11" t="str">
-        <v>soufunpa624209916</v>
+        <v>fang3165652792</v>
       </c>
       <c r="C11" t="str">
-        <v>136****3366</v>
+        <v>153****9279</v>
       </c>
       <c r="D11" t="str">
         <v>杨帆</v>
@@ -672,18 +771,51 @@
         <v>已接通</v>
       </c>
       <c r="F11" t="str">
-        <v>2019/7/31 16:05:17</v>
+        <v>2019/8/1 12:45:55</v>
       </c>
       <c r="G11" t="str">
-        <v>精准潜客</v>
+        <v>收藏</v>
       </c>
       <c r="H11" t="str">
-        <v>=HYPERLINK("https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4990573&amp;NewCode=3110122580", "链接")</v>
+        <v>查看</v>
+      </c>
+      <c r="I11" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J11" t="str">
+        <v>2019/8/1 15:56:04</v>
+      </c>
+      <c r="K11" t="str">
+        <v>141</v>
+      </c>
+      <c r="L11" t="str">
+        <v>【通话】 拨打电话【跟进】 空了过来看看</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4997148&amp;NewCode=3110122580"/>
+    <hyperlink ref="I2" r:id="rId2" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801163206860648822219.mp3"/>
+    <hyperlink ref="H3" r:id="rId3" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4997107&amp;NewCode=3110122580"/>
+    <hyperlink ref="I3" r:id="rId4" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801162926979409622228.mp3"/>
+    <hyperlink ref="H4" r:id="rId5" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4996959&amp;NewCode=3110122580"/>
+    <hyperlink ref="I4" r:id="rId6" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801162115857227422193.mp3"/>
+    <hyperlink ref="H5" r:id="rId7" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4996958&amp;NewCode=3110122580"/>
+    <hyperlink ref="I5" r:id="rId8" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801161535860393122217.mp3"/>
+    <hyperlink ref="H6" r:id="rId9" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4996234&amp;NewCode=3110122580"/>
+    <hyperlink ref="I6" r:id="rId10" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801154037856684522192.mp3"/>
+    <hyperlink ref="H7" r:id="rId11" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995961&amp;NewCode=3110122580"/>
+    <hyperlink ref="I7" r:id="rId12" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801153528856451722197.mp3"/>
+    <hyperlink ref="H8" r:id="rId13" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995960&amp;NewCode=3110122580"/>
+    <hyperlink ref="I8" r:id="rId14" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801155421978793422228.mp3"/>
+    <hyperlink ref="H9" r:id="rId15" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995568&amp;NewCode=3110122580"/>
+    <hyperlink ref="I9" r:id="rId16" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801155210978626122231.mp3"/>
+    <hyperlink ref="H10" r:id="rId17" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995427&amp;NewCode=3110122580"/>
+    <hyperlink ref="H11" r:id="rId18" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4994976&amp;NewCode=3110122580"/>
+    <hyperlink ref="I11" r:id="rId19" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801155604978652622235.mp3"/>
+  </hyperlinks>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/cc.xlsx
+++ b/node/cc.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -409,77 +409,62 @@
         <v>音频地址</v>
       </c>
       <c r="J1" t="str">
-        <v>通话时间</v>
+        <v>通话时长</v>
       </c>
       <c r="K1" t="str">
-        <v>通话时长</v>
+        <v>跟进记录</v>
       </c>
       <c r="L1" t="str">
-        <v>跟进记录</v>
+        <v>意向</v>
       </c>
       <c r="M1" t="str">
-        <v>意向</v>
-      </c>
-      <c r="N1" t="str">
         <v>通话记录</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>112363553</v>
+        <v>109309722</v>
       </c>
       <c r="B2" t="str">
-        <v>passport7657619011</v>
+        <v>fang5808533272</v>
       </c>
       <c r="C2" t="str">
-        <v>134****2632</v>
+        <v>177****5311</v>
       </c>
       <c r="D2" t="str">
-        <v>刘茜婷</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F2" t="str">
-        <v>2019/8/1 16:30:46</v>
+        <v>2019/8/2 16:04:44</v>
       </c>
       <c r="G2" t="str">
-        <v>房聊</v>
+        <v>精准潜客</v>
       </c>
       <c r="H2" t="str">
         <v>查看</v>
-      </c>
-      <c r="I2" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J2" t="str">
-        <v>2019/8/1 16:32:06</v>
-      </c>
-      <c r="K2" t="str">
-        <v>32</v>
-      </c>
-      <c r="L2" t="str">
-        <v>【通话】 拨打电话【跟进】 一直不说话</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>91987221</v>
+        <v>49177283</v>
       </c>
       <c r="B3" t="str">
-        <v>fang8397888519</v>
+        <v>secondhouse73978789</v>
       </c>
       <c r="C3" t="str">
-        <v>139****8330</v>
+        <v>132****1318</v>
       </c>
       <c r="D3" t="str">
-        <v>杨帆</v>
+        <v>田杰</v>
       </c>
       <c r="E3" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F3" t="str">
-        <v>2019/8/1 16:16:12</v>
+        <v>2019/8/2 16:04:34</v>
       </c>
       <c r="G3" t="str">
         <v>房聊</v>
@@ -487,78 +472,54 @@
       <c r="H3" t="str">
         <v>查看</v>
       </c>
-      <c r="I3" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J3" t="str">
-        <v>2019/8/1 16:29:26</v>
-      </c>
-      <c r="K3" t="str">
-        <v>37</v>
-      </c>
-      <c r="L3" t="str">
-        <v>【通话】 拨打电话【跟进】 不买房</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>105943102</v>
+        <v>103974412</v>
       </c>
       <c r="B4" t="str">
-        <v>4008407478101</v>
+        <v>card947084486</v>
       </c>
       <c r="C4" t="str">
-        <v>199****3767</v>
+        <v>173****5614</v>
       </c>
       <c r="D4" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F4" t="str">
-        <v>2019/8/1 16:03:16</v>
+        <v>2019/8/2 15:30:39</v>
       </c>
       <c r="G4" t="str">
-        <v>精准潜客</v>
+        <v>400电话</v>
       </c>
       <c r="H4" t="str">
         <v>查看</v>
-      </c>
-      <c r="I4" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J4" t="str">
-        <v>2019/8/1 16:21:15</v>
-      </c>
-      <c r="K4" t="str">
-        <v>14</v>
-      </c>
-      <c r="L4" t="str">
-        <v>【通话】 拨打电话</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>103550633</v>
+        <v>55048424</v>
       </c>
       <c r="B5" t="str">
-        <v>fang8675573412</v>
+        <v>rentapp44702</v>
       </c>
       <c r="C5" t="str">
-        <v>187****6245</v>
+        <v>158****0668</v>
       </c>
       <c r="D5" t="str">
-        <v>杨帆</v>
+        <v>刘茜婷</v>
       </c>
       <c r="E5" t="str">
         <v>已接通</v>
       </c>
       <c r="F5" t="str">
-        <v>2019/8/1 16:03:15</v>
+        <v>2019/8/2 14:20:43</v>
       </c>
       <c r="G5" t="str">
-        <v>房聊</v>
+        <v>收藏</v>
       </c>
       <c r="H5" t="str">
         <v>查看</v>
@@ -567,62 +528,47 @@
         <v>链接</v>
       </c>
       <c r="J5" t="str">
-        <v>2019/8/1 16:15:35</v>
+        <v>15</v>
       </c>
       <c r="K5" t="str">
-        <v>392</v>
-      </c>
-      <c r="L5" t="str">
-        <v>【通话】 拨打电话【跟进】 已加微信</v>
+        <v>【通话】 拨打电话【跟进】 不需要</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>108373727</v>
+        <v>91838270</v>
       </c>
       <c r="B6" t="str">
-        <v>fang4001187518137</v>
+        <v>fang2316611454</v>
       </c>
       <c r="C6" t="str">
-        <v>136****4931</v>
+        <v>183****2568</v>
       </c>
       <c r="D6" t="str">
-        <v>刘茜婷</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F6" t="str">
-        <v>2019/8/1 15:02:17</v>
+        <v>2019/8/2 14:11:53</v>
       </c>
       <c r="G6" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H6" t="str">
         <v>查看</v>
-      </c>
-      <c r="I6" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J6" t="str">
-        <v>2019/8/1 15:40:37</v>
-      </c>
-      <c r="K6" t="str">
-        <v>14</v>
-      </c>
-      <c r="L6" t="str">
-        <v>【通话】 拨打电话【跟进】 现在在忙</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>113231744</v>
+        <v>111797595</v>
       </c>
       <c r="B7" t="str">
-        <v>fang4004853638962</v>
+        <v>fang5579946096</v>
       </c>
       <c r="C7" t="str">
-        <v>177****8991</v>
+        <v>185****7490</v>
       </c>
       <c r="D7" t="str">
         <v>刘茜婷</v>
@@ -631,7 +577,7 @@
         <v>已接通</v>
       </c>
       <c r="F7" t="str">
-        <v>2019/8/1 14:07:55</v>
+        <v>2019/8/2 14:11:52</v>
       </c>
       <c r="G7" t="str">
         <v>精准潜客</v>
@@ -643,109 +589,82 @@
         <v>链接</v>
       </c>
       <c r="J7" t="str">
-        <v>2019/8/1 15:35:28</v>
+        <v>10</v>
       </c>
       <c r="K7" t="str">
-        <v>20</v>
-      </c>
-      <c r="L7" t="str">
-        <v>【通话】 拨打电话【跟进】 不考虑买房子</v>
+        <v>【通话】 拨打电话【跟进】 不考虑</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>112697822</v>
+        <v>110758640</v>
       </c>
       <c r="B8" t="str">
-        <v>fang1698711650</v>
+        <v>fang3132761169</v>
       </c>
       <c r="C8" t="str">
-        <v>177****0538</v>
+        <v>183****7130</v>
       </c>
       <c r="D8" t="str">
-        <v>刘茜婷</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F8" t="str">
-        <v>2019/8/1 14:07:54</v>
+        <v>2019/8/2 13:33:12</v>
       </c>
       <c r="G8" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H8" t="str">
         <v>查看</v>
-      </c>
-      <c r="I8" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J8" t="str">
-        <v>2019/8/1 15:54:21</v>
-      </c>
-      <c r="K8" t="str">
-        <v>105</v>
-      </c>
-      <c r="L8" t="str">
-        <v>【通话】 拨打电话【跟进】 开盘再联系</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>112863218</v>
+        <v>113248077</v>
       </c>
       <c r="B9" t="str">
-        <v>fang8658098061</v>
+        <v>card3061188776</v>
       </c>
       <c r="C9" t="str">
-        <v>186****5774</v>
+        <v>159****7171</v>
       </c>
       <c r="D9" t="str">
-        <v>刘茜婷</v>
+        <v/>
       </c>
       <c r="E9" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F9" t="str">
-        <v>2019/8/1 13:56:27</v>
+        <v>2019/8/2 12:59:42</v>
       </c>
       <c r="G9" t="str">
-        <v>收藏</v>
+        <v>精准潜客</v>
       </c>
       <c r="H9" t="str">
         <v>查看</v>
-      </c>
-      <c r="I9" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J9" t="str">
-        <v>2019/8/1 15:52:10</v>
-      </c>
-      <c r="K9" t="str">
-        <v>17</v>
-      </c>
-      <c r="L9" t="str">
-        <v>【通话】 拨打电话【跟进】 不考虑</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>102429849</v>
+        <v>112519876</v>
       </c>
       <c r="B10" t="str">
-        <v>kysjk1310809375</v>
+        <v>card2529929</v>
       </c>
       <c r="C10" t="str">
-        <v>177****3027</v>
+        <v>136****0216</v>
       </c>
       <c r="D10" t="str">
-        <v>杨帆</v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v>已呼未接通</v>
+        <v>未呼</v>
       </c>
       <c r="F10" t="str">
-        <v>2019/8/1 13:07:45</v>
+        <v>2019/8/2 12:59:32</v>
       </c>
       <c r="G10" t="str">
         <v>精准潜客</v>
@@ -756,66 +675,727 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
+        <v>113259137</v>
+      </c>
+      <c r="B11" t="str">
+        <v>card4038412099</v>
+      </c>
+      <c r="C11" t="str">
+        <v>177****7909</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v>未呼</v>
+      </c>
+      <c r="F11" t="str">
+        <v>2019/8/2 11:42:38</v>
+      </c>
+      <c r="G11" t="str">
+        <v>精准潜客</v>
+      </c>
+      <c r="H11" t="str">
+        <v>查看</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>85435775</v>
+      </c>
+      <c r="B12" t="str">
+        <v>esfsecon7131622</v>
+      </c>
+      <c r="C12" t="str">
+        <v>134****4030</v>
+      </c>
+      <c r="D12" t="str">
+        <v>杨帆</v>
+      </c>
+      <c r="E12" t="str">
+        <v>已呼未接通</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2019/8/2 11:42:35</v>
+      </c>
+      <c r="G12" t="str">
+        <v>精准潜客</v>
+      </c>
+      <c r="H12" t="str">
+        <v>查看</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>112946594</v>
+      </c>
+      <c r="B13" t="str">
+        <v>8wmlj99w5cn</v>
+      </c>
+      <c r="C13" t="str">
+        <v>134****2658</v>
+      </c>
+      <c r="D13" t="str">
+        <v>田杰</v>
+      </c>
+      <c r="E13" t="str">
+        <v>未呼</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2019/8/2 10:56:53</v>
+      </c>
+      <c r="G13" t="str">
+        <v>房聊</v>
+      </c>
+      <c r="H13" t="str">
+        <v>查看</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>113305750</v>
+      </c>
+      <c r="B14" t="str">
+        <v>fang4008667640946</v>
+      </c>
+      <c r="C14" t="str">
+        <v>131****1096</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v>未呼</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2019/8/2 9:26:22</v>
+      </c>
+      <c r="G14" t="str">
+        <v>400电话</v>
+      </c>
+      <c r="H14" t="str">
+        <v>查看</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>100915385</v>
+      </c>
+      <c r="B15" t="str">
+        <v>card116090625</v>
+      </c>
+      <c r="C15" t="str">
+        <v>188****0294</v>
+      </c>
+      <c r="D15" t="str">
+        <v>田杰</v>
+      </c>
+      <c r="E15" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2019/8/2 9:13:18</v>
+      </c>
+      <c r="G15" t="str">
+        <v>精准潜客</v>
+      </c>
+      <c r="H15" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I15" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J15" t="str">
+        <v>22</v>
+      </c>
+      <c r="K15" t="str">
+        <v>【通话】 拨打电话</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>72633005</v>
+      </c>
+      <c r="B16" t="str">
+        <v>soufunso81526311</v>
+      </c>
+      <c r="C16" t="str">
+        <v>139****5715</v>
+      </c>
+      <c r="D16" t="str">
+        <v>田杰</v>
+      </c>
+      <c r="E16" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2019/8/2 9:13:17</v>
+      </c>
+      <c r="G16" t="str">
+        <v>精准潜客</v>
+      </c>
+      <c r="H16" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I16" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J16" t="str">
+        <v>16</v>
+      </c>
+      <c r="K16" t="str">
+        <v>【通话】 拨打电话</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>112989344</v>
+      </c>
+      <c r="B17" t="str">
+        <v>fang5138809305</v>
+      </c>
+      <c r="C17" t="str">
+        <v>132****6950</v>
+      </c>
+      <c r="D17" t="str">
+        <v>田杰</v>
+      </c>
+      <c r="E17" t="str">
+        <v>未呼</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2019/8/2 7:40:41</v>
+      </c>
+      <c r="G17" t="str">
+        <v>房聊</v>
+      </c>
+      <c r="H17" t="str">
+        <v>查看</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>106215744</v>
+      </c>
+      <c r="B18" t="str">
+        <v>fang6205562513</v>
+      </c>
+      <c r="C18" t="str">
+        <v>182****3449</v>
+      </c>
+      <c r="D18" t="str">
+        <v>刘茜婷</v>
+      </c>
+      <c r="E18" t="str">
+        <v>已呼未接通</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2019/8/1 18:35:33</v>
+      </c>
+      <c r="G18" t="str">
+        <v>房聊</v>
+      </c>
+      <c r="H18" t="str">
+        <v>查看</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>66515486</v>
+      </c>
+      <c r="B19" t="str">
+        <v>lnewhous628858488</v>
+      </c>
+      <c r="C19" t="str">
+        <v>139****3630</v>
+      </c>
+      <c r="D19" t="str">
+        <v>田杰</v>
+      </c>
+      <c r="E19" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2019/8/1 18:25:32</v>
+      </c>
+      <c r="G19" t="str">
+        <v>通知订阅</v>
+      </c>
+      <c r="H19" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I19" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J19" t="str">
+        <v>0,206</v>
+      </c>
+      <c r="K19" t="str">
+        <v>【通话】 拨打电话【通话】 拨打电话</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>112363553</v>
+      </c>
+      <c r="B20" t="str">
+        <v>passport7657619011</v>
+      </c>
+      <c r="C20" t="str">
+        <v>134****2632</v>
+      </c>
+      <c r="D20" t="str">
+        <v>刘茜婷</v>
+      </c>
+      <c r="E20" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2019/8/1 16:30:46</v>
+      </c>
+      <c r="G20" t="str">
+        <v>房聊</v>
+      </c>
+      <c r="H20" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I20" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J20" t="str">
+        <v>32</v>
+      </c>
+      <c r="K20" t="str">
+        <v>【通话】 拨打电话【跟进】 一直不说话</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>91987221</v>
+      </c>
+      <c r="B21" t="str">
+        <v>fang8397888519</v>
+      </c>
+      <c r="C21" t="str">
+        <v>139****8330</v>
+      </c>
+      <c r="D21" t="str">
+        <v>杨帆</v>
+      </c>
+      <c r="E21" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2019/8/1 16:16:12</v>
+      </c>
+      <c r="G21" t="str">
+        <v>房聊</v>
+      </c>
+      <c r="H21" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I21" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J21" t="str">
+        <v>37</v>
+      </c>
+      <c r="K21" t="str">
+        <v>【通话】 拨打电话【跟进】 不买房</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>105943102</v>
+      </c>
+      <c r="B22" t="str">
+        <v>4008407478101</v>
+      </c>
+      <c r="C22" t="str">
+        <v>199****3767</v>
+      </c>
+      <c r="D22" t="str">
+        <v>田杰</v>
+      </c>
+      <c r="E22" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2019/8/1 16:03:16</v>
+      </c>
+      <c r="G22" t="str">
+        <v>精准潜客</v>
+      </c>
+      <c r="H22" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I22" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J22" t="str">
+        <v>14</v>
+      </c>
+      <c r="K22" t="str">
+        <v>【通话】 拨打电话</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>103550633</v>
+      </c>
+      <c r="B23" t="str">
+        <v>fang8675573412</v>
+      </c>
+      <c r="C23" t="str">
+        <v>187****6245</v>
+      </c>
+      <c r="D23" t="str">
+        <v>杨帆</v>
+      </c>
+      <c r="E23" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2019/8/1 16:03:15</v>
+      </c>
+      <c r="G23" t="str">
+        <v>房聊</v>
+      </c>
+      <c r="H23" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I23" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J23" t="str">
+        <v>392</v>
+      </c>
+      <c r="K23" t="str">
+        <v>【通话】 拨打电话【跟进】 已加微信</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>108373727</v>
+      </c>
+      <c r="B24" t="str">
+        <v>fang4001187518137</v>
+      </c>
+      <c r="C24" t="str">
+        <v>136****4931</v>
+      </c>
+      <c r="D24" t="str">
+        <v>刘茜婷</v>
+      </c>
+      <c r="E24" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2019/8/1 15:02:17</v>
+      </c>
+      <c r="G24" t="str">
+        <v>精准潜客</v>
+      </c>
+      <c r="H24" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I24" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J24" t="str">
+        <v>14</v>
+      </c>
+      <c r="K24" t="str">
+        <v>【通话】 拨打电话【跟进】 现在在忙</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>113231744</v>
+      </c>
+      <c r="B25" t="str">
+        <v>fang4004853638962</v>
+      </c>
+      <c r="C25" t="str">
+        <v>177****8991</v>
+      </c>
+      <c r="D25" t="str">
+        <v>刘茜婷</v>
+      </c>
+      <c r="E25" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2019/8/1 14:07:55</v>
+      </c>
+      <c r="G25" t="str">
+        <v>精准潜客</v>
+      </c>
+      <c r="H25" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I25" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J25" t="str">
+        <v>20</v>
+      </c>
+      <c r="K25" t="str">
+        <v>【通话】 拨打电话【跟进】 不考虑买房子</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>112697822</v>
+      </c>
+      <c r="B26" t="str">
+        <v>fang1698711650</v>
+      </c>
+      <c r="C26" t="str">
+        <v>177****0538</v>
+      </c>
+      <c r="D26" t="str">
+        <v>刘茜婷</v>
+      </c>
+      <c r="E26" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2019/8/1 14:07:54</v>
+      </c>
+      <c r="G26" t="str">
+        <v>精准潜客</v>
+      </c>
+      <c r="H26" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I26" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J26" t="str">
+        <v>105</v>
+      </c>
+      <c r="K26" t="str">
+        <v>【通话】 拨打电话【跟进】 开盘再联系</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>112863218</v>
+      </c>
+      <c r="B27" t="str">
+        <v>fang8658098061</v>
+      </c>
+      <c r="C27" t="str">
+        <v>186****5774</v>
+      </c>
+      <c r="D27" t="str">
+        <v>刘茜婷</v>
+      </c>
+      <c r="E27" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2019/8/1 13:56:27</v>
+      </c>
+      <c r="G27" t="str">
+        <v>收藏</v>
+      </c>
+      <c r="H27" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I27" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J27" t="str">
+        <v>17</v>
+      </c>
+      <c r="K27" t="str">
+        <v>【通话】 拨打电话【跟进】 不考虑</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>102429849</v>
+      </c>
+      <c r="B28" t="str">
+        <v>kysjk1310809375</v>
+      </c>
+      <c r="C28" t="str">
+        <v>177****3027</v>
+      </c>
+      <c r="D28" t="str">
+        <v>杨帆</v>
+      </c>
+      <c r="E28" t="str">
+        <v>已呼未接通</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2019/8/1 13:07:45</v>
+      </c>
+      <c r="G28" t="str">
+        <v>精准潜客</v>
+      </c>
+      <c r="H28" t="str">
+        <v>查看</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
         <v>113076459</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B29" t="str">
         <v>fang3165652792</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C29" t="str">
         <v>153****9279</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D29" t="str">
         <v>杨帆</v>
       </c>
-      <c r="E11" t="str">
-        <v>已接通</v>
-      </c>
-      <c r="F11" t="str">
+      <c r="E29" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F29" t="str">
         <v>2019/8/1 12:45:55</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G29" t="str">
         <v>收藏</v>
       </c>
-      <c r="H11" t="str">
-        <v>查看</v>
-      </c>
-      <c r="I11" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J11" t="str">
-        <v>2019/8/1 15:56:04</v>
-      </c>
-      <c r="K11" t="str">
+      <c r="H29" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I29" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J29" t="str">
         <v>141</v>
       </c>
-      <c r="L11" t="str">
+      <c r="K29" t="str">
         <v>【通话】 拨打电话【跟进】 空了过来看看</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>113238911</v>
+      </c>
+      <c r="B30" t="str">
+        <v>card3005022577</v>
+      </c>
+      <c r="C30" t="str">
+        <v>136****4770</v>
+      </c>
+      <c r="D30" t="str">
+        <v>刘茜婷</v>
+      </c>
+      <c r="E30" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2019/8/1 12:07:07</v>
+      </c>
+      <c r="G30" t="str">
+        <v>精准潜客</v>
+      </c>
+      <c r="H30" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I30" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J30" t="str">
+        <v>14</v>
+      </c>
+      <c r="K30" t="str">
+        <v>【通话】 拨打电话【跟进】 不需要</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>112758983</v>
+      </c>
+      <c r="B31" t="str">
+        <v>fang1918277248</v>
+      </c>
+      <c r="C31" t="str">
+        <v>182****9691</v>
+      </c>
+      <c r="D31" t="str">
+        <v>刘茜婷</v>
+      </c>
+      <c r="E31" t="str">
+        <v>已接通</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2019/8/1 11:35:59</v>
+      </c>
+      <c r="G31" t="str">
+        <v>房聊</v>
+      </c>
+      <c r="H31" t="str">
+        <v>查看</v>
+      </c>
+      <c r="I31" t="str">
+        <v>链接</v>
+      </c>
+      <c r="J31" t="str">
+        <v>74</v>
+      </c>
+      <c r="K31" t="str">
+        <v>【通话】 拨打电话【跟进】 等户型图出来了再说</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4997148&amp;NewCode=3110122580"/>
-    <hyperlink ref="I2" r:id="rId2" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801163206860648822219.mp3"/>
-    <hyperlink ref="H3" r:id="rId3" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4997107&amp;NewCode=3110122580"/>
-    <hyperlink ref="I3" r:id="rId4" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801162926979409622228.mp3"/>
-    <hyperlink ref="H4" r:id="rId5" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4996959&amp;NewCode=3110122580"/>
-    <hyperlink ref="I4" r:id="rId6" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801162115857227422193.mp3"/>
-    <hyperlink ref="H5" r:id="rId7" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4996958&amp;NewCode=3110122580"/>
-    <hyperlink ref="I5" r:id="rId8" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801161535860393122217.mp3"/>
-    <hyperlink ref="H6" r:id="rId9" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4996234&amp;NewCode=3110122580"/>
-    <hyperlink ref="I6" r:id="rId10" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801154037856684522192.mp3"/>
-    <hyperlink ref="H7" r:id="rId11" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995961&amp;NewCode=3110122580"/>
-    <hyperlink ref="I7" r:id="rId12" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801153528856451722197.mp3"/>
-    <hyperlink ref="H8" r:id="rId13" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995960&amp;NewCode=3110122580"/>
-    <hyperlink ref="I8" r:id="rId14" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801155421978793422228.mp3"/>
-    <hyperlink ref="H9" r:id="rId15" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995568&amp;NewCode=3110122580"/>
-    <hyperlink ref="I9" r:id="rId16" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801155210978626122231.mp3"/>
-    <hyperlink ref="H10" r:id="rId17" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995427&amp;NewCode=3110122580"/>
-    <hyperlink ref="H11" r:id="rId18" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4994976&amp;NewCode=3110122580"/>
-    <hyperlink ref="I11" r:id="rId19" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801155604978652622235.mp3"/>
+    <hyperlink ref="H2" r:id="rId1" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5003714&amp;NewCode=3110122580"/>
+    <hyperlink ref="H3" r:id="rId2" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5003710&amp;NewCode=3110122580"/>
+    <hyperlink ref="H4" r:id="rId3" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5003476&amp;NewCode=3110122580"/>
+    <hyperlink ref="H5" r:id="rId4" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5003020&amp;NewCode=3110122580"/>
+    <hyperlink ref="I5" r:id="rId5" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190802/20190802143617873370222196.mp3"/>
+    <hyperlink ref="H6" r:id="rId6" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5002955&amp;NewCode=3110122580"/>
+    <hyperlink ref="H7" r:id="rId7" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5002954&amp;NewCode=3110122580"/>
+    <hyperlink ref="I7" r:id="rId8" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190802/20190802144047921477722239.mp3"/>
+    <hyperlink ref="H8" r:id="rId9" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5002504&amp;NewCode=3110122580"/>
+    <hyperlink ref="H9" r:id="rId10" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5001793&amp;NewCode=3110122580"/>
+    <hyperlink ref="H10" r:id="rId11" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5001792&amp;NewCode=3110122580"/>
+    <hyperlink ref="H11" r:id="rId12" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5001135&amp;NewCode=3110122580"/>
+    <hyperlink ref="H12" r:id="rId13" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5001132&amp;NewCode=3110122580"/>
+    <hyperlink ref="H13" r:id="rId14" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5000210&amp;NewCode=3110122580"/>
+    <hyperlink ref="H14" r:id="rId15" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4999638&amp;NewCode=3110122580"/>
+    <hyperlink ref="H15" r:id="rId16" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4999551&amp;NewCode=3110122580"/>
+    <hyperlink ref="I15" r:id="rId17" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190802/20190802101912865827422197.mp3"/>
+    <hyperlink ref="H16" r:id="rId18" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4999550&amp;NewCode=3110122580"/>
+    <hyperlink ref="I16" r:id="rId19" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190802/20190802102128881226822206.mp3"/>
+    <hyperlink ref="H17" r:id="rId20" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4998818&amp;NewCode=3110122580"/>
+    <hyperlink ref="H18" r:id="rId21" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4998148&amp;NewCode=3110122580"/>
+    <hyperlink ref="H19" r:id="rId22" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4998134&amp;NewCode=3110122580"/>
+    <hyperlink ref="I19" r:id="rId23" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190802/20190802102223914421522237.mp3"/>
+    <hyperlink ref="H20" r:id="rId24" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4997148&amp;NewCode=3110122580"/>
+    <hyperlink ref="I20" r:id="rId25" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801163206860648822219.mp3"/>
+    <hyperlink ref="H21" r:id="rId26" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4997107&amp;NewCode=3110122580"/>
+    <hyperlink ref="I21" r:id="rId27" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801162926979409622228.mp3"/>
+    <hyperlink ref="H22" r:id="rId28" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4996959&amp;NewCode=3110122580"/>
+    <hyperlink ref="I22" r:id="rId29" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801162115857227422193.mp3"/>
+    <hyperlink ref="H23" r:id="rId30" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4996958&amp;NewCode=3110122580"/>
+    <hyperlink ref="I23" r:id="rId31" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801161535860393122217.mp3"/>
+    <hyperlink ref="H24" r:id="rId32" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4996234&amp;NewCode=3110122580"/>
+    <hyperlink ref="I24" r:id="rId33" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801154037856684522192.mp3"/>
+    <hyperlink ref="H25" r:id="rId34" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995961&amp;NewCode=3110122580"/>
+    <hyperlink ref="I25" r:id="rId35" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801153528856451722197.mp3"/>
+    <hyperlink ref="H26" r:id="rId36" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995960&amp;NewCode=3110122580"/>
+    <hyperlink ref="I26" r:id="rId37" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801155421978793422228.mp3"/>
+    <hyperlink ref="H27" r:id="rId38" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995568&amp;NewCode=3110122580"/>
+    <hyperlink ref="I27" r:id="rId39" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801155210978626122231.mp3"/>
+    <hyperlink ref="H28" r:id="rId40" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995427&amp;NewCode=3110122580"/>
+    <hyperlink ref="H29" r:id="rId41" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4994976&amp;NewCode=3110122580"/>
+    <hyperlink ref="I29" r:id="rId42" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801155604978652622235.mp3"/>
+    <hyperlink ref="H30" r:id="rId43" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4994756&amp;NewCode=3110122580"/>
+    <hyperlink ref="I30" r:id="rId44" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801163423906002522246.mp3"/>
+    <hyperlink ref="H31" r:id="rId45" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4994370&amp;NewCode=3110122580"/>
+    <hyperlink ref="I31" r:id="rId46" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801153021859749022221.mp3"/>
   </hyperlinks>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M31"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/cc.xlsx
+++ b/node/cc.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,30 +406,33 @@
         <v>操作</v>
       </c>
       <c r="I1" t="str">
+        <v>更新时间</v>
+      </c>
+      <c r="J1" t="str">
         <v>音频地址</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>通话时长</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>跟进记录</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>意向</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>通话记录</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>109309722</v>
+        <v>113110222</v>
       </c>
       <c r="B2" t="str">
-        <v>fang5808533272</v>
+        <v>fang4946670910</v>
       </c>
       <c r="C2" t="str">
-        <v>177****5311</v>
+        <v>186****4471</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -438,111 +441,123 @@
         <v>未呼</v>
       </c>
       <c r="F2" t="str">
-        <v>2019/8/2 16:04:44</v>
+        <v>2019/8/6 16:51:17</v>
       </c>
       <c r="G2" t="str">
-        <v>精准潜客</v>
+        <v>收藏</v>
       </c>
       <c r="H2" t="str">
         <v>查看</v>
+      </c>
+      <c r="I2" t="str">
+        <v>8/6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>49177283</v>
+        <v>112824944</v>
       </c>
       <c r="B3" t="str">
-        <v>secondhouse73978789</v>
+        <v>fang2026272798</v>
       </c>
       <c r="C3" t="str">
-        <v>132****1318</v>
+        <v>138****8372</v>
       </c>
       <c r="D3" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E3" t="str">
         <v>未呼</v>
       </c>
       <c r="F3" t="str">
-        <v>2019/8/2 16:04:34</v>
+        <v>2019/8/6 16:06:15</v>
       </c>
       <c r="G3" t="str">
-        <v>房聊</v>
+        <v>精准潜客</v>
       </c>
       <c r="H3" t="str">
         <v>查看</v>
+      </c>
+      <c r="I3" t="str">
+        <v>8/6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>103974412</v>
+        <v>113269242</v>
       </c>
       <c r="B4" t="str">
-        <v>card947084486</v>
+        <v>card1089273009</v>
       </c>
       <c r="C4" t="str">
-        <v>173****5614</v>
+        <v>136****6996</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>田杰</v>
       </c>
       <c r="E4" t="str">
-        <v>未呼</v>
+        <v>已接通</v>
       </c>
       <c r="F4" t="str">
-        <v>2019/8/2 15:30:39</v>
+        <v>2019/8/6 15:06:55</v>
       </c>
       <c r="G4" t="str">
-        <v>400电话</v>
+        <v>精准潜客</v>
       </c>
       <c r="H4" t="str">
         <v>查看</v>
+      </c>
+      <c r="I4" t="str">
+        <v>8/6</v>
+      </c>
+      <c r="J4" t="str">
+        <v>链接</v>
+      </c>
+      <c r="K4" t="str">
+        <v>27</v>
+      </c>
+      <c r="L4" t="str">
+        <v>【通话】 拨打电话</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>55048424</v>
+        <v>110943296</v>
       </c>
       <c r="B5" t="str">
-        <v>rentapp44702</v>
+        <v>card2269886366</v>
       </c>
       <c r="C5" t="str">
-        <v>158****0668</v>
+        <v>183****0968</v>
       </c>
       <c r="D5" t="str">
-        <v>刘茜婷</v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F5" t="str">
-        <v>2019/8/2 14:20:43</v>
+        <v>2019/8/6 14:06:47</v>
       </c>
       <c r="G5" t="str">
-        <v>收藏</v>
+        <v>精准潜客</v>
       </c>
       <c r="H5" t="str">
         <v>查看</v>
       </c>
       <c r="I5" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J5" t="str">
-        <v>15</v>
-      </c>
-      <c r="K5" t="str">
-        <v>【通话】 拨打电话【跟进】 不需要</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>91838270</v>
+        <v>113216371</v>
       </c>
       <c r="B6" t="str">
-        <v>fang2316611454</v>
+        <v>card4123456819</v>
       </c>
       <c r="C6" t="str">
-        <v>183****2568</v>
+        <v>137****2816</v>
       </c>
       <c r="D6" t="str">
         <v/>
@@ -551,33 +566,36 @@
         <v>未呼</v>
       </c>
       <c r="F6" t="str">
-        <v>2019/8/2 14:11:53</v>
+        <v>2019/8/6 13:26:11</v>
       </c>
       <c r="G6" t="str">
-        <v>精准潜客</v>
+        <v>400电话</v>
       </c>
       <c r="H6" t="str">
         <v>查看</v>
+      </c>
+      <c r="I6" t="str">
+        <v>8/6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>111797595</v>
+        <v>112852985</v>
       </c>
       <c r="B7" t="str">
-        <v>fang5579946096</v>
+        <v>card4288562048</v>
       </c>
       <c r="C7" t="str">
-        <v>185****7490</v>
+        <v>186****6967</v>
       </c>
       <c r="D7" t="str">
-        <v>刘茜婷</v>
+        <v/>
       </c>
       <c r="E7" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F7" t="str">
-        <v>2019/8/2 14:11:52</v>
+        <v>2019/8/6 13:17:28</v>
       </c>
       <c r="G7" t="str">
         <v>精准潜客</v>
@@ -586,24 +604,18 @@
         <v>查看</v>
       </c>
       <c r="I7" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J7" t="str">
-        <v>10</v>
-      </c>
-      <c r="K7" t="str">
-        <v>【通话】 拨打电话【跟进】 不考虑</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>110758640</v>
+        <v>113003027</v>
       </c>
       <c r="B8" t="str">
-        <v>fang3132761169</v>
+        <v>card7599717232</v>
       </c>
       <c r="C8" t="str">
-        <v>183****7130</v>
+        <v>173****3382</v>
       </c>
       <c r="D8" t="str">
         <v/>
@@ -612,24 +624,27 @@
         <v>未呼</v>
       </c>
       <c r="F8" t="str">
-        <v>2019/8/2 13:33:12</v>
+        <v>2019/8/6 12:05:22</v>
       </c>
       <c r="G8" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H8" t="str">
         <v>查看</v>
+      </c>
+      <c r="I8" t="str">
+        <v>8/6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>113248077</v>
+        <v>104511120</v>
       </c>
       <c r="B9" t="str">
-        <v>card3061188776</v>
+        <v>card5308871275</v>
       </c>
       <c r="C9" t="str">
-        <v>159****7171</v>
+        <v>173****1660</v>
       </c>
       <c r="D9" t="str">
         <v/>
@@ -638,24 +653,27 @@
         <v>未呼</v>
       </c>
       <c r="F9" t="str">
-        <v>2019/8/2 12:59:42</v>
+        <v>2019/8/6 11:05:28</v>
       </c>
       <c r="G9" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H9" t="str">
         <v>查看</v>
+      </c>
+      <c r="I9" t="str">
+        <v>8/6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>112519876</v>
+        <v>59198512</v>
       </c>
       <c r="B10" t="str">
-        <v>card2529929</v>
+        <v>bnewhous619517745</v>
       </c>
       <c r="C10" t="str">
-        <v>136****0216</v>
+        <v>139****1333</v>
       </c>
       <c r="D10" t="str">
         <v/>
@@ -664,24 +682,27 @@
         <v>未呼</v>
       </c>
       <c r="F10" t="str">
-        <v>2019/8/2 12:59:32</v>
+        <v>2019/8/6 11:05:25</v>
       </c>
       <c r="G10" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H10" t="str">
         <v>查看</v>
+      </c>
+      <c r="I10" t="str">
+        <v>8/6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>113259137</v>
+        <v>113125648</v>
       </c>
       <c r="B11" t="str">
-        <v>card4038412099</v>
+        <v>card5628287746</v>
       </c>
       <c r="C11" t="str">
-        <v>177****7909</v>
+        <v>136****1112</v>
       </c>
       <c r="D11" t="str">
         <v/>
@@ -690,76 +711,85 @@
         <v>未呼</v>
       </c>
       <c r="F11" t="str">
-        <v>2019/8/2 11:42:38</v>
+        <v>2019/8/6 10:05:25</v>
       </c>
       <c r="G11" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H11" t="str">
         <v>查看</v>
+      </c>
+      <c r="I11" t="str">
+        <v>8/6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>85435775</v>
+        <v>81492829</v>
       </c>
       <c r="B12" t="str">
-        <v>esfsecon7131622</v>
+        <v>newhouse327988607</v>
       </c>
       <c r="C12" t="str">
-        <v>134****4030</v>
+        <v>133****5373</v>
       </c>
       <c r="D12" t="str">
-        <v>杨帆</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v>已呼未接通</v>
+        <v>未呼</v>
       </c>
       <c r="F12" t="str">
-        <v>2019/8/2 11:42:35</v>
+        <v>2019/8/6 10:05:21</v>
       </c>
       <c r="G12" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H12" t="str">
         <v>查看</v>
+      </c>
+      <c r="I12" t="str">
+        <v>8/6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>112946594</v>
+        <v>99245852</v>
       </c>
       <c r="B13" t="str">
-        <v>8wmlj99w5cn</v>
+        <v>card3108808479</v>
       </c>
       <c r="C13" t="str">
-        <v>134****2658</v>
+        <v>189****3855</v>
       </c>
       <c r="D13" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E13" t="str">
         <v>未呼</v>
       </c>
       <c r="F13" t="str">
-        <v>2019/8/2 10:56:53</v>
+        <v>2019/8/6 9:13:03</v>
       </c>
       <c r="G13" t="str">
-        <v>房聊</v>
+        <v>收藏</v>
       </c>
       <c r="H13" t="str">
         <v>查看</v>
+      </c>
+      <c r="I13" t="str">
+        <v>8/6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>113305750</v>
+        <v>113273796</v>
       </c>
       <c r="B14" t="str">
-        <v>fang4008667640946</v>
+        <v>fang6118273204</v>
       </c>
       <c r="C14" t="str">
-        <v>131****1096</v>
+        <v>182****1233</v>
       </c>
       <c r="D14" t="str">
         <v/>
@@ -768,33 +798,36 @@
         <v>未呼</v>
       </c>
       <c r="F14" t="str">
-        <v>2019/8/2 9:26:22</v>
+        <v>2019/8/6 9:04:12</v>
       </c>
       <c r="G14" t="str">
-        <v>400电话</v>
+        <v>精准潜客</v>
       </c>
       <c r="H14" t="str">
         <v>查看</v>
+      </c>
+      <c r="I14" t="str">
+        <v>8/6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>100915385</v>
+        <v>55490101</v>
       </c>
       <c r="B15" t="str">
-        <v>card116090625</v>
+        <v>newhouse419530588</v>
       </c>
       <c r="C15" t="str">
-        <v>188****0294</v>
+        <v>152****3592</v>
       </c>
       <c r="D15" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F15" t="str">
-        <v>2019/8/2 9:13:18</v>
+        <v>2019/8/6 9:04:07</v>
       </c>
       <c r="G15" t="str">
         <v>精准潜客</v>
@@ -803,155 +836,143 @@
         <v>查看</v>
       </c>
       <c r="I15" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J15" t="str">
-        <v>22</v>
-      </c>
-      <c r="K15" t="str">
-        <v>【通话】 拨打电话</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>72633005</v>
+        <v>61482998</v>
       </c>
       <c r="B16" t="str">
-        <v>soufunso81526311</v>
+        <v>bnewhous622103772</v>
       </c>
       <c r="C16" t="str">
-        <v>139****5715</v>
+        <v>138****1013</v>
       </c>
       <c r="D16" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F16" t="str">
-        <v>2019/8/2 9:13:17</v>
+        <v>2019/8/6 0:06:51</v>
       </c>
       <c r="G16" t="str">
-        <v>精准潜客</v>
+        <v>收藏</v>
       </c>
       <c r="H16" t="str">
         <v>查看</v>
       </c>
       <c r="I16" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J16" t="str">
-        <v>16</v>
-      </c>
-      <c r="K16" t="str">
-        <v>【通话】 拨打电话</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>112989344</v>
+        <v>53800473</v>
       </c>
       <c r="B17" t="str">
-        <v>fang5138809305</v>
+        <v>soufun-s227356414</v>
       </c>
       <c r="C17" t="str">
-        <v>132****6950</v>
+        <v>158****3498</v>
       </c>
       <c r="D17" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E17" t="str">
         <v>未呼</v>
       </c>
       <c r="F17" t="str">
-        <v>2019/8/2 7:40:41</v>
+        <v>2019/8/6 0:06:47</v>
       </c>
       <c r="G17" t="str">
-        <v>房聊</v>
+        <v>收藏</v>
       </c>
       <c r="H17" t="str">
         <v>查看</v>
+      </c>
+      <c r="I17" t="str">
+        <v>8/6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>106215744</v>
+        <v>100273526</v>
       </c>
       <c r="B18" t="str">
-        <v>fang6205562513</v>
+        <v>card1149962646</v>
       </c>
       <c r="C18" t="str">
-        <v>182****3449</v>
+        <v>135****1923</v>
       </c>
       <c r="D18" t="str">
-        <v>刘茜婷</v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v>已呼未接通</v>
+        <v>未呼</v>
       </c>
       <c r="F18" t="str">
-        <v>2019/8/1 18:35:33</v>
+        <v>2019/8/5 21:56:35</v>
       </c>
       <c r="G18" t="str">
-        <v>房聊</v>
+        <v>收藏</v>
       </c>
       <c r="H18" t="str">
         <v>查看</v>
+      </c>
+      <c r="I18" t="str">
+        <v>8/6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>66515486</v>
+        <v>112458471</v>
       </c>
       <c r="B19" t="str">
-        <v>lnewhous628858488</v>
+        <v>fang9935466360</v>
       </c>
       <c r="C19" t="str">
-        <v>139****3630</v>
+        <v>139****6319</v>
       </c>
       <c r="D19" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E19" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F19" t="str">
-        <v>2019/8/1 18:25:32</v>
+        <v>2019/8/5 19:01:58</v>
       </c>
       <c r="G19" t="str">
-        <v>通知订阅</v>
+        <v>收藏</v>
       </c>
       <c r="H19" t="str">
         <v>查看</v>
       </c>
       <c r="I19" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J19" t="str">
-        <v>0,206</v>
-      </c>
-      <c r="K19" t="str">
-        <v>【通话】 拨打电话【通话】 拨打电话</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>112363553</v>
+        <v>93882085</v>
       </c>
       <c r="B20" t="str">
-        <v>passport7657619011</v>
+        <v>momotomo1</v>
       </c>
       <c r="C20" t="str">
-        <v>134****2632</v>
+        <v>152****6753</v>
       </c>
       <c r="D20" t="str">
-        <v>刘茜婷</v>
+        <v>田杰</v>
       </c>
       <c r="E20" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F20" t="str">
-        <v>2019/8/1 16:30:46</v>
+        <v>2019/8/5 17:11:35</v>
       </c>
       <c r="G20" t="str">
         <v>房聊</v>
@@ -960,68 +981,56 @@
         <v>查看</v>
       </c>
       <c r="I20" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J20" t="str">
-        <v>32</v>
-      </c>
-      <c r="K20" t="str">
-        <v>【通话】 拨打电话【跟进】 一直不说话</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>91987221</v>
+        <v>103069846</v>
       </c>
       <c r="B21" t="str">
-        <v>fang8397888519</v>
+        <v>fang5607402962</v>
       </c>
       <c r="C21" t="str">
-        <v>139****8330</v>
+        <v>175****2681</v>
       </c>
       <c r="D21" t="str">
-        <v>杨帆</v>
+        <v/>
       </c>
       <c r="E21" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F21" t="str">
-        <v>2019/8/1 16:16:12</v>
+        <v>2019/8/5 17:04:00</v>
       </c>
       <c r="G21" t="str">
-        <v>房聊</v>
+        <v>精准潜客</v>
       </c>
       <c r="H21" t="str">
         <v>查看</v>
       </c>
       <c r="I21" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J21" t="str">
-        <v>37</v>
-      </c>
-      <c r="K21" t="str">
-        <v>【通话】 拨打电话【跟进】 不买房</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>105943102</v>
+        <v>113198735</v>
       </c>
       <c r="B22" t="str">
-        <v>4008407478101</v>
+        <v>fang657196133</v>
       </c>
       <c r="C22" t="str">
-        <v>199****3767</v>
+        <v>136****2776</v>
       </c>
       <c r="D22" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E22" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F22" t="str">
-        <v>2019/8/1 16:03:16</v>
+        <v>2019/8/5 17:03:59</v>
       </c>
       <c r="G22" t="str">
         <v>精准潜客</v>
@@ -1030,68 +1039,56 @@
         <v>查看</v>
       </c>
       <c r="I22" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J22" t="str">
-        <v>14</v>
-      </c>
-      <c r="K22" t="str">
-        <v>【通话】 拨打电话</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>103550633</v>
+        <v>113291560</v>
       </c>
       <c r="B23" t="str">
-        <v>fang8675573412</v>
+        <v>fang4003673479890</v>
       </c>
       <c r="C23" t="str">
-        <v>187****6245</v>
+        <v>182****7756</v>
       </c>
       <c r="D23" t="str">
-        <v>杨帆</v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F23" t="str">
-        <v>2019/8/1 16:03:15</v>
+        <v>2019/8/5 16:04:46</v>
       </c>
       <c r="G23" t="str">
-        <v>房聊</v>
+        <v>精准潜客</v>
       </c>
       <c r="H23" t="str">
         <v>查看</v>
       </c>
       <c r="I23" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J23" t="str">
-        <v>392</v>
-      </c>
-      <c r="K23" t="str">
-        <v>【通话】 拨打电话【跟进】 已加微信</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>108373727</v>
+        <v>65327759</v>
       </c>
       <c r="B24" t="str">
-        <v>fang4001187518137</v>
+        <v>nnewhous627773542</v>
       </c>
       <c r="C24" t="str">
-        <v>136****4931</v>
+        <v>138****1980</v>
       </c>
       <c r="D24" t="str">
-        <v>刘茜婷</v>
+        <v/>
       </c>
       <c r="E24" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F24" t="str">
-        <v>2019/8/1 15:02:17</v>
+        <v>2019/8/5 16:04:45</v>
       </c>
       <c r="G24" t="str">
         <v>精准潜客</v>
@@ -1100,33 +1097,27 @@
         <v>查看</v>
       </c>
       <c r="I24" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J24" t="str">
-        <v>14</v>
-      </c>
-      <c r="K24" t="str">
-        <v>【通话】 拨打电话【跟进】 现在在忙</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>113231744</v>
+        <v>51533560</v>
       </c>
       <c r="B25" t="str">
-        <v>fang4004853638962</v>
+        <v>soufun-s1019842291</v>
       </c>
       <c r="C25" t="str">
-        <v>177****8991</v>
+        <v>139****2546</v>
       </c>
       <c r="D25" t="str">
-        <v>刘茜婷</v>
+        <v/>
       </c>
       <c r="E25" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F25" t="str">
-        <v>2019/8/1 14:07:55</v>
+        <v>2019/8/5 15:04:33</v>
       </c>
       <c r="G25" t="str">
         <v>精准潜客</v>
@@ -1135,33 +1126,27 @@
         <v>查看</v>
       </c>
       <c r="I25" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J25" t="str">
-        <v>20</v>
-      </c>
-      <c r="K25" t="str">
-        <v>【通话】 拨打电话【跟进】 不考虑买房子</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>112697822</v>
+        <v>113309879</v>
       </c>
       <c r="B26" t="str">
-        <v>fang1698711650</v>
+        <v>fang8924712275</v>
       </c>
       <c r="C26" t="str">
-        <v>177****0538</v>
+        <v>158****0560</v>
       </c>
       <c r="D26" t="str">
-        <v>刘茜婷</v>
+        <v>田杰</v>
       </c>
       <c r="E26" t="str">
         <v>已接通</v>
       </c>
       <c r="F26" t="str">
-        <v>2019/8/1 14:07:54</v>
+        <v>2019/8/5 15:04:32</v>
       </c>
       <c r="G26" t="str">
         <v>精准潜客</v>
@@ -1170,129 +1155,123 @@
         <v>查看</v>
       </c>
       <c r="I26" t="str">
+        <v>8/6</v>
+      </c>
+      <c r="J26" t="str">
         <v>链接</v>
       </c>
-      <c r="J26" t="str">
-        <v>105</v>
-      </c>
       <c r="K26" t="str">
-        <v>【通话】 拨打电话【跟进】 开盘再联系</v>
+        <v>22</v>
+      </c>
+      <c r="L26" t="str">
+        <v>【通话】 拨打电话</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>112863218</v>
+        <v>94503996</v>
       </c>
       <c r="B27" t="str">
-        <v>fang8658098061</v>
+        <v>card7730366086</v>
       </c>
       <c r="C27" t="str">
-        <v>186****5774</v>
+        <v>138****5271</v>
       </c>
       <c r="D27" t="str">
-        <v>刘茜婷</v>
+        <v/>
       </c>
       <c r="E27" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F27" t="str">
-        <v>2019/8/1 13:56:27</v>
+        <v>2019/8/5 14:04:41</v>
       </c>
       <c r="G27" t="str">
-        <v>收藏</v>
+        <v>精准潜客</v>
       </c>
       <c r="H27" t="str">
         <v>查看</v>
       </c>
       <c r="I27" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J27" t="str">
-        <v>17</v>
-      </c>
-      <c r="K27" t="str">
-        <v>【通话】 拨打电话【跟进】 不考虑</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>102429849</v>
+        <v>113309028</v>
       </c>
       <c r="B28" t="str">
-        <v>kysjk1310809375</v>
+        <v>fang4002839525704</v>
       </c>
       <c r="C28" t="str">
-        <v>177****3027</v>
+        <v>156****9228</v>
       </c>
       <c r="D28" t="str">
-        <v>杨帆</v>
+        <v/>
       </c>
       <c r="E28" t="str">
-        <v>已呼未接通</v>
+        <v>未呼</v>
       </c>
       <c r="F28" t="str">
-        <v>2019/8/1 13:07:45</v>
+        <v>2019/8/5 13:14:07</v>
       </c>
       <c r="G28" t="str">
         <v>精准潜客</v>
       </c>
       <c r="H28" t="str">
         <v>查看</v>
+      </c>
+      <c r="I28" t="str">
+        <v>8/6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>113076459</v>
+        <v>31798327</v>
       </c>
       <c r="B29" t="str">
-        <v>fang3165652792</v>
+        <v>天天无忧</v>
       </c>
       <c r="C29" t="str">
-        <v>153****9279</v>
+        <v>158****0378</v>
       </c>
       <c r="D29" t="str">
-        <v>杨帆</v>
+        <v/>
       </c>
       <c r="E29" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F29" t="str">
-        <v>2019/8/1 12:45:55</v>
+        <v>2019/8/5 12:04:59</v>
       </c>
       <c r="G29" t="str">
-        <v>收藏</v>
+        <v>精准潜客</v>
       </c>
       <c r="H29" t="str">
         <v>查看</v>
       </c>
       <c r="I29" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J29" t="str">
-        <v>141</v>
-      </c>
-      <c r="K29" t="str">
-        <v>【通话】 拨打电话【跟进】 空了过来看看</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>113238911</v>
+        <v>88691758</v>
       </c>
       <c r="B30" t="str">
-        <v>card3005022577</v>
+        <v>open2492081461</v>
       </c>
       <c r="C30" t="str">
-        <v>136****4770</v>
+        <v>186****5885</v>
       </c>
       <c r="D30" t="str">
-        <v>刘茜婷</v>
+        <v/>
       </c>
       <c r="E30" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F30" t="str">
-        <v>2019/8/1 12:07:07</v>
+        <v>2019/8/5 12:04:57</v>
       </c>
       <c r="G30" t="str">
         <v>精准潜客</v>
@@ -1301,101 +1280,85 @@
         <v>查看</v>
       </c>
       <c r="I30" t="str">
-        <v>链接</v>
-      </c>
-      <c r="J30" t="str">
-        <v>14</v>
-      </c>
-      <c r="K30" t="str">
-        <v>【通话】 拨打电话【跟进】 不需要</v>
+        <v>8/6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>112758983</v>
+        <v>113349671</v>
       </c>
       <c r="B31" t="str">
-        <v>fang1918277248</v>
+        <v>fang5184682079</v>
       </c>
       <c r="C31" t="str">
-        <v>182****9691</v>
+        <v>177****0069</v>
       </c>
       <c r="D31" t="str">
-        <v>刘茜婷</v>
+        <v>田杰</v>
       </c>
       <c r="E31" t="str">
         <v>已接通</v>
       </c>
       <c r="F31" t="str">
-        <v>2019/8/1 11:35:59</v>
+        <v>2019/8/5 11:36:29</v>
       </c>
       <c r="G31" t="str">
-        <v>房聊</v>
+        <v>预约看房</v>
       </c>
       <c r="H31" t="str">
         <v>查看</v>
       </c>
       <c r="I31" t="str">
+        <v>8/6</v>
+      </c>
+      <c r="J31" t="str">
         <v>链接</v>
       </c>
-      <c r="J31" t="str">
-        <v>74</v>
-      </c>
       <c r="K31" t="str">
-        <v>【通话】 拨打电话【跟进】 等户型图出来了再说</v>
+        <v>184</v>
+      </c>
+      <c r="L31" t="str">
+        <v>【通话】 拨打电话</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5003714&amp;NewCode=3110122580"/>
-    <hyperlink ref="H3" r:id="rId2" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5003710&amp;NewCode=3110122580"/>
-    <hyperlink ref="H4" r:id="rId3" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5003476&amp;NewCode=3110122580"/>
-    <hyperlink ref="H5" r:id="rId4" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5003020&amp;NewCode=3110122580"/>
-    <hyperlink ref="I5" r:id="rId5" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190802/20190802143617873370222196.mp3"/>
-    <hyperlink ref="H6" r:id="rId6" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5002955&amp;NewCode=3110122580"/>
-    <hyperlink ref="H7" r:id="rId7" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5002954&amp;NewCode=3110122580"/>
-    <hyperlink ref="I7" r:id="rId8" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190802/20190802144047921477722239.mp3"/>
-    <hyperlink ref="H8" r:id="rId9" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5002504&amp;NewCode=3110122580"/>
-    <hyperlink ref="H9" r:id="rId10" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5001793&amp;NewCode=3110122580"/>
-    <hyperlink ref="H10" r:id="rId11" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5001792&amp;NewCode=3110122580"/>
-    <hyperlink ref="H11" r:id="rId12" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5001135&amp;NewCode=3110122580"/>
-    <hyperlink ref="H12" r:id="rId13" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5001132&amp;NewCode=3110122580"/>
-    <hyperlink ref="H13" r:id="rId14" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5000210&amp;NewCode=3110122580"/>
-    <hyperlink ref="H14" r:id="rId15" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4999638&amp;NewCode=3110122580"/>
-    <hyperlink ref="H15" r:id="rId16" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4999551&amp;NewCode=3110122580"/>
-    <hyperlink ref="I15" r:id="rId17" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190802/20190802101912865827422197.mp3"/>
-    <hyperlink ref="H16" r:id="rId18" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4999550&amp;NewCode=3110122580"/>
-    <hyperlink ref="I16" r:id="rId19" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190802/20190802102128881226822206.mp3"/>
-    <hyperlink ref="H17" r:id="rId20" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4998818&amp;NewCode=3110122580"/>
-    <hyperlink ref="H18" r:id="rId21" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4998148&amp;NewCode=3110122580"/>
-    <hyperlink ref="H19" r:id="rId22" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4998134&amp;NewCode=3110122580"/>
-    <hyperlink ref="I19" r:id="rId23" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190802/20190802102223914421522237.mp3"/>
-    <hyperlink ref="H20" r:id="rId24" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4997148&amp;NewCode=3110122580"/>
-    <hyperlink ref="I20" r:id="rId25" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801163206860648822219.mp3"/>
-    <hyperlink ref="H21" r:id="rId26" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4997107&amp;NewCode=3110122580"/>
-    <hyperlink ref="I21" r:id="rId27" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801162926979409622228.mp3"/>
-    <hyperlink ref="H22" r:id="rId28" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4996959&amp;NewCode=3110122580"/>
-    <hyperlink ref="I22" r:id="rId29" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801162115857227422193.mp3"/>
-    <hyperlink ref="H23" r:id="rId30" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4996958&amp;NewCode=3110122580"/>
-    <hyperlink ref="I23" r:id="rId31" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801161535860393122217.mp3"/>
-    <hyperlink ref="H24" r:id="rId32" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4996234&amp;NewCode=3110122580"/>
-    <hyperlink ref="I24" r:id="rId33" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801154037856684522192.mp3"/>
-    <hyperlink ref="H25" r:id="rId34" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995961&amp;NewCode=3110122580"/>
-    <hyperlink ref="I25" r:id="rId35" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801153528856451722197.mp3"/>
-    <hyperlink ref="H26" r:id="rId36" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995960&amp;NewCode=3110122580"/>
-    <hyperlink ref="I26" r:id="rId37" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801155421978793422228.mp3"/>
-    <hyperlink ref="H27" r:id="rId38" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995568&amp;NewCode=3110122580"/>
-    <hyperlink ref="I27" r:id="rId39" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801155210978626122231.mp3"/>
-    <hyperlink ref="H28" r:id="rId40" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4995427&amp;NewCode=3110122580"/>
-    <hyperlink ref="H29" r:id="rId41" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4994976&amp;NewCode=3110122580"/>
-    <hyperlink ref="I29" r:id="rId42" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801155604978652622235.mp3"/>
-    <hyperlink ref="H30" r:id="rId43" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4994756&amp;NewCode=3110122580"/>
-    <hyperlink ref="I30" r:id="rId44" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801163423906002522246.mp3"/>
-    <hyperlink ref="H31" r:id="rId45" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=4994370&amp;NewCode=3110122580"/>
-    <hyperlink ref="I31" r:id="rId46" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190801/20190801153021859749022221.mp3"/>
+    <hyperlink ref="H2" r:id="rId1" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5033901&amp;NewCode=3110122580"/>
+    <hyperlink ref="H3" r:id="rId2" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5033670&amp;NewCode=3110122580"/>
+    <hyperlink ref="H4" r:id="rId3" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5033002&amp;NewCode=3110122580"/>
+    <hyperlink ref="J4" r:id="rId4" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190806/20190806150835935394722221.mp3"/>
+    <hyperlink ref="H5" r:id="rId5" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5032146&amp;NewCode=3110122580"/>
+    <hyperlink ref="H6" r:id="rId6" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5031868&amp;NewCode=3110122580"/>
+    <hyperlink ref="H7" r:id="rId7" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5031826&amp;NewCode=3110122580"/>
+    <hyperlink ref="H8" r:id="rId8" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5030870&amp;NewCode=3110122580"/>
+    <hyperlink ref="H9" r:id="rId9" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5030171&amp;NewCode=3110122580"/>
+    <hyperlink ref="H10" r:id="rId10" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5030169&amp;NewCode=3110122580"/>
+    <hyperlink ref="H11" r:id="rId11" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5029595&amp;NewCode=3110122580"/>
+    <hyperlink ref="H12" r:id="rId12" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5029592&amp;NewCode=3110122580"/>
+    <hyperlink ref="H13" r:id="rId13" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028976&amp;NewCode=3110122580"/>
+    <hyperlink ref="H14" r:id="rId14" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028807&amp;NewCode=3110122580"/>
+    <hyperlink ref="H15" r:id="rId15" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028804&amp;NewCode=3110122580"/>
+    <hyperlink ref="H16" r:id="rId16" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028077&amp;NewCode=3110122580"/>
+    <hyperlink ref="H17" r:id="rId17" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028073&amp;NewCode=3110122580"/>
+    <hyperlink ref="H18" r:id="rId18" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5027843&amp;NewCode=3110122580"/>
+    <hyperlink ref="H19" r:id="rId19" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5027410&amp;NewCode=3110122580"/>
+    <hyperlink ref="H20" r:id="rId20" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5026800&amp;NewCode=3110122580"/>
+    <hyperlink ref="H21" r:id="rId21" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5026685&amp;NewCode=3110122580"/>
+    <hyperlink ref="H22" r:id="rId22" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5026684&amp;NewCode=3110122580"/>
+    <hyperlink ref="H23" r:id="rId23" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5025931&amp;NewCode=3110122580"/>
+    <hyperlink ref="H24" r:id="rId24" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5025930&amp;NewCode=3110122580"/>
+    <hyperlink ref="H25" r:id="rId25" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5025452&amp;NewCode=3110122580"/>
+    <hyperlink ref="H26" r:id="rId26" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5025451&amp;NewCode=3110122580"/>
+    <hyperlink ref="J26" r:id="rId27" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190806/20190806150746935362322222.mp3"/>
+    <hyperlink ref="H27" r:id="rId28" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5024606&amp;NewCode=3110122580"/>
+    <hyperlink ref="H28" r:id="rId29" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5024324&amp;NewCode=3110122580"/>
+    <hyperlink ref="H29" r:id="rId30" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5023346&amp;NewCode=3110122580"/>
+    <hyperlink ref="H30" r:id="rId31" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5023345&amp;NewCode=3110122580"/>
+    <hyperlink ref="H31" r:id="rId32" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5023105&amp;NewCode=3110122580"/>
+    <hyperlink ref="J31" r:id="rId33" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190805/201908051137131043243422230.mp3"/>
   </hyperlinks>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N31"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/cc.xlsx
+++ b/node/cc.xlsx
@@ -426,13 +426,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>113110222</v>
+        <v>58583559</v>
       </c>
       <c r="B2" t="str">
-        <v>fang4946670910</v>
+        <v>knewhous618310774</v>
       </c>
       <c r="C2" t="str">
-        <v>186****4471</v>
+        <v>137****5287</v>
       </c>
       <c r="D2" t="str">
         <v/>
@@ -441,7 +441,7 @@
         <v>未呼</v>
       </c>
       <c r="F2" t="str">
-        <v>2019/8/6 16:51:17</v>
+        <v>2019/8/6 21:56:26</v>
       </c>
       <c r="G2" t="str">
         <v>收藏</v>
@@ -455,13 +455,13 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>112824944</v>
+        <v>113110222</v>
       </c>
       <c r="B3" t="str">
-        <v>fang2026272798</v>
+        <v>fang4946670910</v>
       </c>
       <c r="C3" t="str">
-        <v>138****8372</v>
+        <v>186****4471</v>
       </c>
       <c r="D3" t="str">
         <v/>
@@ -470,10 +470,10 @@
         <v>未呼</v>
       </c>
       <c r="F3" t="str">
-        <v>2019/8/6 16:06:15</v>
+        <v>2019/8/6 16:51:17</v>
       </c>
       <c r="G3" t="str">
-        <v>精准潜客</v>
+        <v>收藏</v>
       </c>
       <c r="H3" t="str">
         <v>查看</v>
@@ -484,22 +484,22 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>113269242</v>
+        <v>112824944</v>
       </c>
       <c r="B4" t="str">
-        <v>card1089273009</v>
+        <v>fang2026272798</v>
       </c>
       <c r="C4" t="str">
-        <v>136****6996</v>
+        <v>138****8372</v>
       </c>
       <c r="D4" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F4" t="str">
-        <v>2019/8/6 15:06:55</v>
+        <v>2019/8/6 16:06:15</v>
       </c>
       <c r="G4" t="str">
         <v>精准潜客</v>
@@ -509,35 +509,26 @@
       </c>
       <c r="I4" t="str">
         <v>8/6</v>
-      </c>
-      <c r="J4" t="str">
-        <v>链接</v>
-      </c>
-      <c r="K4" t="str">
-        <v>27</v>
-      </c>
-      <c r="L4" t="str">
-        <v>【通话】 拨打电话</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>110943296</v>
+        <v>113269242</v>
       </c>
       <c r="B5" t="str">
-        <v>card2269886366</v>
+        <v>card1089273009</v>
       </c>
       <c r="C5" t="str">
-        <v>183****0968</v>
+        <v>136****6996</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>田杰</v>
       </c>
       <c r="E5" t="str">
-        <v>未呼</v>
+        <v>已接通</v>
       </c>
       <c r="F5" t="str">
-        <v>2019/8/6 14:06:47</v>
+        <v>2019/8/6 15:06:55</v>
       </c>
       <c r="G5" t="str">
         <v>精准潜客</v>
@@ -547,17 +538,26 @@
       </c>
       <c r="I5" t="str">
         <v>8/6</v>
+      </c>
+      <c r="J5" t="str">
+        <v>链接</v>
+      </c>
+      <c r="K5" t="str">
+        <v>27</v>
+      </c>
+      <c r="L5" t="str">
+        <v>【通话】 拨打电话</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>113216371</v>
+        <v>110943296</v>
       </c>
       <c r="B6" t="str">
-        <v>card4123456819</v>
+        <v>card2269886366</v>
       </c>
       <c r="C6" t="str">
-        <v>137****2816</v>
+        <v>183****0968</v>
       </c>
       <c r="D6" t="str">
         <v/>
@@ -566,10 +566,10 @@
         <v>未呼</v>
       </c>
       <c r="F6" t="str">
-        <v>2019/8/6 13:26:11</v>
+        <v>2019/8/6 14:06:47</v>
       </c>
       <c r="G6" t="str">
-        <v>400电话</v>
+        <v>精准潜客</v>
       </c>
       <c r="H6" t="str">
         <v>查看</v>
@@ -580,13 +580,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>112852985</v>
+        <v>113216371</v>
       </c>
       <c r="B7" t="str">
-        <v>card4288562048</v>
+        <v>card4123456819</v>
       </c>
       <c r="C7" t="str">
-        <v>186****6967</v>
+        <v>137****2816</v>
       </c>
       <c r="D7" t="str">
         <v/>
@@ -595,10 +595,10 @@
         <v>未呼</v>
       </c>
       <c r="F7" t="str">
-        <v>2019/8/6 13:17:28</v>
+        <v>2019/8/6 13:26:11</v>
       </c>
       <c r="G7" t="str">
-        <v>精准潜客</v>
+        <v>400电话</v>
       </c>
       <c r="H7" t="str">
         <v>查看</v>
@@ -609,13 +609,13 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>113003027</v>
+        <v>112852985</v>
       </c>
       <c r="B8" t="str">
-        <v>card7599717232</v>
+        <v>card4288562048</v>
       </c>
       <c r="C8" t="str">
-        <v>173****3382</v>
+        <v>186****6967</v>
       </c>
       <c r="D8" t="str">
         <v/>
@@ -624,7 +624,7 @@
         <v>未呼</v>
       </c>
       <c r="F8" t="str">
-        <v>2019/8/6 12:05:22</v>
+        <v>2019/8/6 13:17:28</v>
       </c>
       <c r="G8" t="str">
         <v>精准潜客</v>
@@ -638,13 +638,13 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>104511120</v>
+        <v>113003027</v>
       </c>
       <c r="B9" t="str">
-        <v>card5308871275</v>
+        <v>card7599717232</v>
       </c>
       <c r="C9" t="str">
-        <v>173****1660</v>
+        <v>173****3382</v>
       </c>
       <c r="D9" t="str">
         <v/>
@@ -653,7 +653,7 @@
         <v>未呼</v>
       </c>
       <c r="F9" t="str">
-        <v>2019/8/6 11:05:28</v>
+        <v>2019/8/6 12:05:22</v>
       </c>
       <c r="G9" t="str">
         <v>精准潜客</v>
@@ -667,13 +667,13 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>59198512</v>
+        <v>104511120</v>
       </c>
       <c r="B10" t="str">
-        <v>bnewhous619517745</v>
+        <v>card5308871275</v>
       </c>
       <c r="C10" t="str">
-        <v>139****1333</v>
+        <v>173****1660</v>
       </c>
       <c r="D10" t="str">
         <v/>
@@ -682,7 +682,7 @@
         <v>未呼</v>
       </c>
       <c r="F10" t="str">
-        <v>2019/8/6 11:05:25</v>
+        <v>2019/8/6 11:05:28</v>
       </c>
       <c r="G10" t="str">
         <v>精准潜客</v>
@@ -696,13 +696,13 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>113125648</v>
+        <v>59198512</v>
       </c>
       <c r="B11" t="str">
-        <v>card5628287746</v>
+        <v>bnewhous619517745</v>
       </c>
       <c r="C11" t="str">
-        <v>136****1112</v>
+        <v>139****1333</v>
       </c>
       <c r="D11" t="str">
         <v/>
@@ -711,7 +711,7 @@
         <v>未呼</v>
       </c>
       <c r="F11" t="str">
-        <v>2019/8/6 10:05:25</v>
+        <v>2019/8/6 11:05:25</v>
       </c>
       <c r="G11" t="str">
         <v>精准潜客</v>
@@ -725,13 +725,13 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>81492829</v>
+        <v>113125648</v>
       </c>
       <c r="B12" t="str">
-        <v>newhouse327988607</v>
+        <v>card5628287746</v>
       </c>
       <c r="C12" t="str">
-        <v>133****5373</v>
+        <v>136****1112</v>
       </c>
       <c r="D12" t="str">
         <v/>
@@ -740,7 +740,7 @@
         <v>未呼</v>
       </c>
       <c r="F12" t="str">
-        <v>2019/8/6 10:05:21</v>
+        <v>2019/8/6 10:05:25</v>
       </c>
       <c r="G12" t="str">
         <v>精准潜客</v>
@@ -754,13 +754,13 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>99245852</v>
+        <v>81492829</v>
       </c>
       <c r="B13" t="str">
-        <v>card3108808479</v>
+        <v>newhouse327988607</v>
       </c>
       <c r="C13" t="str">
-        <v>189****3855</v>
+        <v>133****5373</v>
       </c>
       <c r="D13" t="str">
         <v/>
@@ -769,10 +769,10 @@
         <v>未呼</v>
       </c>
       <c r="F13" t="str">
-        <v>2019/8/6 9:13:03</v>
+        <v>2019/8/6 10:05:21</v>
       </c>
       <c r="G13" t="str">
-        <v>收藏</v>
+        <v>精准潜客</v>
       </c>
       <c r="H13" t="str">
         <v>查看</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>113273796</v>
+        <v>99245852</v>
       </c>
       <c r="B14" t="str">
-        <v>fang6118273204</v>
+        <v>card3108808479</v>
       </c>
       <c r="C14" t="str">
-        <v>182****1233</v>
+        <v>189****3855</v>
       </c>
       <c r="D14" t="str">
         <v/>
@@ -798,10 +798,10 @@
         <v>未呼</v>
       </c>
       <c r="F14" t="str">
-        <v>2019/8/6 9:04:12</v>
+        <v>2019/8/6 9:13:03</v>
       </c>
       <c r="G14" t="str">
-        <v>精准潜客</v>
+        <v>收藏</v>
       </c>
       <c r="H14" t="str">
         <v>查看</v>
@@ -812,13 +812,13 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>55490101</v>
+        <v>113273796</v>
       </c>
       <c r="B15" t="str">
-        <v>newhouse419530588</v>
+        <v>fang6118273204</v>
       </c>
       <c r="C15" t="str">
-        <v>152****3592</v>
+        <v>182****1233</v>
       </c>
       <c r="D15" t="str">
         <v/>
@@ -827,7 +827,7 @@
         <v>未呼</v>
       </c>
       <c r="F15" t="str">
-        <v>2019/8/6 9:04:07</v>
+        <v>2019/8/6 9:04:12</v>
       </c>
       <c r="G15" t="str">
         <v>精准潜客</v>
@@ -841,13 +841,13 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>61482998</v>
+        <v>55490101</v>
       </c>
       <c r="B16" t="str">
-        <v>bnewhous622103772</v>
+        <v>newhouse419530588</v>
       </c>
       <c r="C16" t="str">
-        <v>138****1013</v>
+        <v>152****3592</v>
       </c>
       <c r="D16" t="str">
         <v/>
@@ -856,10 +856,10 @@
         <v>未呼</v>
       </c>
       <c r="F16" t="str">
-        <v>2019/8/6 0:06:51</v>
+        <v>2019/8/6 9:04:07</v>
       </c>
       <c r="G16" t="str">
-        <v>收藏</v>
+        <v>精准潜客</v>
       </c>
       <c r="H16" t="str">
         <v>查看</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>53800473</v>
+        <v>61482998</v>
       </c>
       <c r="B17" t="str">
-        <v>soufun-s227356414</v>
+        <v>bnewhous622103772</v>
       </c>
       <c r="C17" t="str">
-        <v>158****3498</v>
+        <v>138****1013</v>
       </c>
       <c r="D17" t="str">
         <v/>
@@ -885,7 +885,7 @@
         <v>未呼</v>
       </c>
       <c r="F17" t="str">
-        <v>2019/8/6 0:06:47</v>
+        <v>2019/8/6 0:06:51</v>
       </c>
       <c r="G17" t="str">
         <v>收藏</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>100273526</v>
+        <v>53800473</v>
       </c>
       <c r="B18" t="str">
-        <v>card1149962646</v>
+        <v>soufun-s227356414</v>
       </c>
       <c r="C18" t="str">
-        <v>135****1923</v>
+        <v>158****3498</v>
       </c>
       <c r="D18" t="str">
         <v/>
@@ -914,7 +914,7 @@
         <v>未呼</v>
       </c>
       <c r="F18" t="str">
-        <v>2019/8/5 21:56:35</v>
+        <v>2019/8/6 0:06:47</v>
       </c>
       <c r="G18" t="str">
         <v>收藏</v>
@@ -928,13 +928,13 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>112458471</v>
+        <v>100273526</v>
       </c>
       <c r="B19" t="str">
-        <v>fang9935466360</v>
+        <v>card1149962646</v>
       </c>
       <c r="C19" t="str">
-        <v>139****6319</v>
+        <v>135****1923</v>
       </c>
       <c r="D19" t="str">
         <v/>
@@ -943,7 +943,7 @@
         <v>未呼</v>
       </c>
       <c r="F19" t="str">
-        <v>2019/8/5 19:01:58</v>
+        <v>2019/8/5 21:56:35</v>
       </c>
       <c r="G19" t="str">
         <v>收藏</v>
@@ -957,25 +957,25 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>93882085</v>
+        <v>112458471</v>
       </c>
       <c r="B20" t="str">
-        <v>momotomo1</v>
+        <v>fang9935466360</v>
       </c>
       <c r="C20" t="str">
-        <v>152****6753</v>
+        <v>139****6319</v>
       </c>
       <c r="D20" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E20" t="str">
         <v>未呼</v>
       </c>
       <c r="F20" t="str">
-        <v>2019/8/5 17:11:35</v>
+        <v>2019/8/5 19:01:58</v>
       </c>
       <c r="G20" t="str">
-        <v>房聊</v>
+        <v>收藏</v>
       </c>
       <c r="H20" t="str">
         <v>查看</v>
@@ -986,25 +986,25 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>103069846</v>
+        <v>93882085</v>
       </c>
       <c r="B21" t="str">
-        <v>fang5607402962</v>
+        <v>momotomo1</v>
       </c>
       <c r="C21" t="str">
-        <v>175****2681</v>
+        <v>152****6753</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>田杰</v>
       </c>
       <c r="E21" t="str">
         <v>未呼</v>
       </c>
       <c r="F21" t="str">
-        <v>2019/8/5 17:04:00</v>
+        <v>2019/8/5 17:11:35</v>
       </c>
       <c r="G21" t="str">
-        <v>精准潜客</v>
+        <v>房聊</v>
       </c>
       <c r="H21" t="str">
         <v>查看</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>113198735</v>
+        <v>103069846</v>
       </c>
       <c r="B22" t="str">
-        <v>fang657196133</v>
+        <v>fang5607402962</v>
       </c>
       <c r="C22" t="str">
-        <v>136****2776</v>
+        <v>175****2681</v>
       </c>
       <c r="D22" t="str">
         <v/>
@@ -1030,7 +1030,7 @@
         <v>未呼</v>
       </c>
       <c r="F22" t="str">
-        <v>2019/8/5 17:03:59</v>
+        <v>2019/8/5 17:04:00</v>
       </c>
       <c r="G22" t="str">
         <v>精准潜客</v>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>113291560</v>
+        <v>113198735</v>
       </c>
       <c r="B23" t="str">
-        <v>fang4003673479890</v>
+        <v>fang657196133</v>
       </c>
       <c r="C23" t="str">
-        <v>182****7756</v>
+        <v>136****2776</v>
       </c>
       <c r="D23" t="str">
         <v/>
@@ -1059,7 +1059,7 @@
         <v>未呼</v>
       </c>
       <c r="F23" t="str">
-        <v>2019/8/5 16:04:46</v>
+        <v>2019/8/5 17:03:59</v>
       </c>
       <c r="G23" t="str">
         <v>精准潜客</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>65327759</v>
+        <v>113291560</v>
       </c>
       <c r="B24" t="str">
-        <v>nnewhous627773542</v>
+        <v>fang4003673479890</v>
       </c>
       <c r="C24" t="str">
-        <v>138****1980</v>
+        <v>182****7756</v>
       </c>
       <c r="D24" t="str">
         <v/>
@@ -1088,7 +1088,7 @@
         <v>未呼</v>
       </c>
       <c r="F24" t="str">
-        <v>2019/8/5 16:04:45</v>
+        <v>2019/8/5 16:04:46</v>
       </c>
       <c r="G24" t="str">
         <v>精准潜客</v>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>51533560</v>
+        <v>65327759</v>
       </c>
       <c r="B25" t="str">
-        <v>soufun-s1019842291</v>
+        <v>nnewhous627773542</v>
       </c>
       <c r="C25" t="str">
-        <v>139****2546</v>
+        <v>138****1980</v>
       </c>
       <c r="D25" t="str">
         <v/>
@@ -1117,7 +1117,7 @@
         <v>未呼</v>
       </c>
       <c r="F25" t="str">
-        <v>2019/8/5 15:04:33</v>
+        <v>2019/8/5 16:04:45</v>
       </c>
       <c r="G25" t="str">
         <v>精准潜客</v>
@@ -1131,22 +1131,22 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>113309879</v>
+        <v>51533560</v>
       </c>
       <c r="B26" t="str">
-        <v>fang8924712275</v>
+        <v>soufun-s1019842291</v>
       </c>
       <c r="C26" t="str">
-        <v>158****0560</v>
+        <v>139****2546</v>
       </c>
       <c r="D26" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E26" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F26" t="str">
-        <v>2019/8/5 15:04:32</v>
+        <v>2019/8/5 15:04:33</v>
       </c>
       <c r="G26" t="str">
         <v>精准潜客</v>
@@ -1156,35 +1156,26 @@
       </c>
       <c r="I26" t="str">
         <v>8/6</v>
-      </c>
-      <c r="J26" t="str">
-        <v>链接</v>
-      </c>
-      <c r="K26" t="str">
-        <v>22</v>
-      </c>
-      <c r="L26" t="str">
-        <v>【通话】 拨打电话</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>94503996</v>
+        <v>113309879</v>
       </c>
       <c r="B27" t="str">
-        <v>card7730366086</v>
+        <v>fang8924712275</v>
       </c>
       <c r="C27" t="str">
-        <v>138****5271</v>
+        <v>158****0560</v>
       </c>
       <c r="D27" t="str">
-        <v/>
+        <v>田杰</v>
       </c>
       <c r="E27" t="str">
-        <v>未呼</v>
+        <v>已接通</v>
       </c>
       <c r="F27" t="str">
-        <v>2019/8/5 14:04:41</v>
+        <v>2019/8/5 15:04:32</v>
       </c>
       <c r="G27" t="str">
         <v>精准潜客</v>
@@ -1194,17 +1185,26 @@
       </c>
       <c r="I27" t="str">
         <v>8/6</v>
+      </c>
+      <c r="J27" t="str">
+        <v>链接</v>
+      </c>
+      <c r="K27" t="str">
+        <v>22</v>
+      </c>
+      <c r="L27" t="str">
+        <v>【通话】 拨打电话</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>113309028</v>
+        <v>94503996</v>
       </c>
       <c r="B28" t="str">
-        <v>fang4002839525704</v>
+        <v>card7730366086</v>
       </c>
       <c r="C28" t="str">
-        <v>156****9228</v>
+        <v>138****5271</v>
       </c>
       <c r="D28" t="str">
         <v/>
@@ -1213,7 +1213,7 @@
         <v>未呼</v>
       </c>
       <c r="F28" t="str">
-        <v>2019/8/5 13:14:07</v>
+        <v>2019/8/5 14:04:41</v>
       </c>
       <c r="G28" t="str">
         <v>精准潜客</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>31798327</v>
+        <v>113309028</v>
       </c>
       <c r="B29" t="str">
-        <v>天天无忧</v>
+        <v>fang4002839525704</v>
       </c>
       <c r="C29" t="str">
-        <v>158****0378</v>
+        <v>156****9228</v>
       </c>
       <c r="D29" t="str">
         <v/>
@@ -1242,7 +1242,7 @@
         <v>未呼</v>
       </c>
       <c r="F29" t="str">
-        <v>2019/8/5 12:04:59</v>
+        <v>2019/8/5 13:14:07</v>
       </c>
       <c r="G29" t="str">
         <v>精准潜客</v>
@@ -1256,13 +1256,13 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>88691758</v>
+        <v>31798327</v>
       </c>
       <c r="B30" t="str">
-        <v>open2492081461</v>
+        <v>天天无忧</v>
       </c>
       <c r="C30" t="str">
-        <v>186****5885</v>
+        <v>158****0378</v>
       </c>
       <c r="D30" t="str">
         <v/>
@@ -1271,7 +1271,7 @@
         <v>未呼</v>
       </c>
       <c r="F30" t="str">
-        <v>2019/8/5 12:04:57</v>
+        <v>2019/8/5 12:04:59</v>
       </c>
       <c r="G30" t="str">
         <v>精准潜客</v>
@@ -1285,77 +1285,67 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>113349671</v>
+        <v>88691758</v>
       </c>
       <c r="B31" t="str">
-        <v>fang5184682079</v>
+        <v>open2492081461</v>
       </c>
       <c r="C31" t="str">
-        <v>177****0069</v>
+        <v>186****5885</v>
       </c>
       <c r="D31" t="str">
-        <v>田杰</v>
+        <v/>
       </c>
       <c r="E31" t="str">
-        <v>已接通</v>
+        <v>未呼</v>
       </c>
       <c r="F31" t="str">
-        <v>2019/8/5 11:36:29</v>
+        <v>2019/8/5 12:04:57</v>
       </c>
       <c r="G31" t="str">
-        <v>预约看房</v>
+        <v>精准潜客</v>
       </c>
       <c r="H31" t="str">
         <v>查看</v>
       </c>
       <c r="I31" t="str">
         <v>8/6</v>
-      </c>
-      <c r="J31" t="str">
-        <v>链接</v>
-      </c>
-      <c r="K31" t="str">
-        <v>184</v>
-      </c>
-      <c r="L31" t="str">
-        <v>【通话】 拨打电话</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5033901&amp;NewCode=3110122580"/>
-    <hyperlink ref="H3" r:id="rId2" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5033670&amp;NewCode=3110122580"/>
-    <hyperlink ref="H4" r:id="rId3" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5033002&amp;NewCode=3110122580"/>
-    <hyperlink ref="J4" r:id="rId4" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190806/20190806150835935394722221.mp3"/>
-    <hyperlink ref="H5" r:id="rId5" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5032146&amp;NewCode=3110122580"/>
-    <hyperlink ref="H6" r:id="rId6" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5031868&amp;NewCode=3110122580"/>
-    <hyperlink ref="H7" r:id="rId7" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5031826&amp;NewCode=3110122580"/>
-    <hyperlink ref="H8" r:id="rId8" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5030870&amp;NewCode=3110122580"/>
-    <hyperlink ref="H9" r:id="rId9" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5030171&amp;NewCode=3110122580"/>
-    <hyperlink ref="H10" r:id="rId10" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5030169&amp;NewCode=3110122580"/>
-    <hyperlink ref="H11" r:id="rId11" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5029595&amp;NewCode=3110122580"/>
-    <hyperlink ref="H12" r:id="rId12" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5029592&amp;NewCode=3110122580"/>
-    <hyperlink ref="H13" r:id="rId13" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028976&amp;NewCode=3110122580"/>
-    <hyperlink ref="H14" r:id="rId14" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028807&amp;NewCode=3110122580"/>
-    <hyperlink ref="H15" r:id="rId15" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028804&amp;NewCode=3110122580"/>
-    <hyperlink ref="H16" r:id="rId16" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028077&amp;NewCode=3110122580"/>
-    <hyperlink ref="H17" r:id="rId17" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028073&amp;NewCode=3110122580"/>
-    <hyperlink ref="H18" r:id="rId18" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5027843&amp;NewCode=3110122580"/>
-    <hyperlink ref="H19" r:id="rId19" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5027410&amp;NewCode=3110122580"/>
-    <hyperlink ref="H20" r:id="rId20" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5026800&amp;NewCode=3110122580"/>
-    <hyperlink ref="H21" r:id="rId21" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5026685&amp;NewCode=3110122580"/>
-    <hyperlink ref="H22" r:id="rId22" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5026684&amp;NewCode=3110122580"/>
-    <hyperlink ref="H23" r:id="rId23" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5025931&amp;NewCode=3110122580"/>
-    <hyperlink ref="H24" r:id="rId24" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5025930&amp;NewCode=3110122580"/>
-    <hyperlink ref="H25" r:id="rId25" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5025452&amp;NewCode=3110122580"/>
-    <hyperlink ref="H26" r:id="rId26" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5025451&amp;NewCode=3110122580"/>
-    <hyperlink ref="J26" r:id="rId27" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190806/20190806150746935362322222.mp3"/>
-    <hyperlink ref="H27" r:id="rId28" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5024606&amp;NewCode=3110122580"/>
-    <hyperlink ref="H28" r:id="rId29" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5024324&amp;NewCode=3110122580"/>
-    <hyperlink ref="H29" r:id="rId30" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5023346&amp;NewCode=3110122580"/>
-    <hyperlink ref="H30" r:id="rId31" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5023345&amp;NewCode=3110122580"/>
-    <hyperlink ref="H31" r:id="rId32" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5023105&amp;NewCode=3110122580"/>
-    <hyperlink ref="J31" r:id="rId33" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190805/201908051137131043243422230.mp3"/>
+    <hyperlink ref="H2" r:id="rId1" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5035970&amp;NewCode=3110122580"/>
+    <hyperlink ref="H3" r:id="rId2" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5033901&amp;NewCode=3110122580"/>
+    <hyperlink ref="H4" r:id="rId3" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5033670&amp;NewCode=3110122580"/>
+    <hyperlink ref="H5" r:id="rId4" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5033002&amp;NewCode=3110122580"/>
+    <hyperlink ref="J5" r:id="rId5" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190806/20190806150835935394722221.mp3"/>
+    <hyperlink ref="H6" r:id="rId6" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5032146&amp;NewCode=3110122580"/>
+    <hyperlink ref="H7" r:id="rId7" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5031868&amp;NewCode=3110122580"/>
+    <hyperlink ref="H8" r:id="rId8" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5031826&amp;NewCode=3110122580"/>
+    <hyperlink ref="H9" r:id="rId9" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5030870&amp;NewCode=3110122580"/>
+    <hyperlink ref="H10" r:id="rId10" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5030171&amp;NewCode=3110122580"/>
+    <hyperlink ref="H11" r:id="rId11" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5030169&amp;NewCode=3110122580"/>
+    <hyperlink ref="H12" r:id="rId12" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5029595&amp;NewCode=3110122580"/>
+    <hyperlink ref="H13" r:id="rId13" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5029592&amp;NewCode=3110122580"/>
+    <hyperlink ref="H14" r:id="rId14" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028976&amp;NewCode=3110122580"/>
+    <hyperlink ref="H15" r:id="rId15" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028807&amp;NewCode=3110122580"/>
+    <hyperlink ref="H16" r:id="rId16" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028804&amp;NewCode=3110122580"/>
+    <hyperlink ref="H17" r:id="rId17" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028077&amp;NewCode=3110122580"/>
+    <hyperlink ref="H18" r:id="rId18" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5028073&amp;NewCode=3110122580"/>
+    <hyperlink ref="H19" r:id="rId19" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5027843&amp;NewCode=3110122580"/>
+    <hyperlink ref="H20" r:id="rId20" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5027410&amp;NewCode=3110122580"/>
+    <hyperlink ref="H21" r:id="rId21" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5026800&amp;NewCode=3110122580"/>
+    <hyperlink ref="H22" r:id="rId22" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5026685&amp;NewCode=3110122580"/>
+    <hyperlink ref="H23" r:id="rId23" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5026684&amp;NewCode=3110122580"/>
+    <hyperlink ref="H24" r:id="rId24" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5025931&amp;NewCode=3110122580"/>
+    <hyperlink ref="H25" r:id="rId25" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5025930&amp;NewCode=3110122580"/>
+    <hyperlink ref="H26" r:id="rId26" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5025452&amp;NewCode=3110122580"/>
+    <hyperlink ref="H27" r:id="rId27" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5025451&amp;NewCode=3110122580"/>
+    <hyperlink ref="J27" r:id="rId28" tooltip="https://rec1.1ketong.com:8092/pull0/97/20190806/20190806150746935362322222.mp3"/>
+    <hyperlink ref="H28" r:id="rId29" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5024606&amp;NewCode=3110122580"/>
+    <hyperlink ref="H29" r:id="rId30" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5024324&amp;NewCode=3110122580"/>
+    <hyperlink ref="H30" r:id="rId31" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5023346&amp;NewCode=3110122580"/>
+    <hyperlink ref="H31" r:id="rId32" tooltip="https://m.fang.com/house/ec/customer/CustomerDetail?relationID=5023345&amp;NewCode=3110122580"/>
   </hyperlinks>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:N31"/>
